--- a/Module3/(C0220H1) TKB Module 3 - Web Front-end Development (1).xlsx
+++ b/Module3/(C0220H1) TKB Module 3 - Web Front-end Development (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CODEGYM\CODE GYM\C0220H1_Le_Thanh_Tung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CODEGYM\CODE GYM\C0220H1_Le_Thanh_Tung\Module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE1FD87-A0BE-4980-AA81-42AC3B7EA7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB791A4C-CD89-46DA-98A5-475846E65C70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,7 +1200,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d&quot;,&quot;dddd"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1261,6 +1261,10 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1335,6 +1339,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC2D69B"/>
         <bgColor rgb="FFC2D69B"/>
       </patternFill>
@@ -1355,12 +1365,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF548135"/>
         <bgColor rgb="FF548135"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1611,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1668,45 +1672,59 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1721,11 +1739,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1743,21 +1761,21 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2099,7 +2117,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2274,10 +2294,10 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="8" t="s">
@@ -2307,10 +2327,10 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="8" t="s">
@@ -3033,92 +3053,96 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="24">
-        <f>WORKDAY(B25,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44039</v>
-      </c>
-      <c r="C26" s="20" t="str">
+      <c r="B26" s="27">
+        <f>WORKDAY(B25,6,'Holidays 2019,2020'!$B$2:$B$18)</f>
+        <v>44046</v>
+      </c>
+      <c r="C26" s="26" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="20" t="str">
+      <c r="F26" s="26" t="str">
         <f t="shared" si="1"/>
         <v>WFD.L7</v>
       </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="28" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="32">
         <f>WORKDAY(B26,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44040</v>
-      </c>
-      <c r="C27" s="20" t="str">
+        <v>44047</v>
+      </c>
+      <c r="C27" s="31" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="20" t="str">
+      <c r="F27" s="31" t="str">
         <f t="shared" si="1"/>
         <v>WFD.L8</v>
       </c>
-      <c r="G27" s="23" t="str">
+      <c r="G27" s="33" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
@@ -3126,7 +3150,7 @@
       </c>
       <c r="B28" s="24">
         <f>WORKDAY(B27,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44041</v>
+        <v>44048</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3172,7 +3196,7 @@
       </c>
       <c r="B29" s="24">
         <f>WORKDAY(B28,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3214,7 +3238,7 @@
       </c>
       <c r="B30" s="24">
         <f>WORKDAY(B29,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44043</v>
+        <v>44050</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3260,7 +3284,7 @@
       </c>
       <c r="B31" s="24">
         <f>WORKDAY(B30,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3306,7 +3330,7 @@
       </c>
       <c r="B32" s="24">
         <f>WORKDAY(B31,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44047</v>
+        <v>44054</v>
       </c>
       <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3348,7 +3372,7 @@
       </c>
       <c r="B33" s="24">
         <f>WORKDAY(B32,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44048</v>
+        <v>44055</v>
       </c>
       <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
@@ -3368,7 +3392,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H33" s="26"/>
+      <c r="H33" s="36"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3390,16 +3414,16 @@
       </c>
       <c r="B34" s="24">
         <f>WORKDAY(B33,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44049</v>
+        <v>44056</v>
       </c>
       <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="28"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3408,7 +3432,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="2"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3434,16 +3458,16 @@
       </c>
       <c r="B35" s="24">
         <f>WORKDAY(B34,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44050</v>
+        <v>44057</v>
       </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3475,22 +3499,22 @@
       </c>
       <c r="B36" s="24">
         <f>WORKDAY(B35,1,'Holidays 2019,2020'!$B$2:$B$18)</f>
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="C36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="39" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="40" t="s">
         <v>77</v>
       </c>
       <c r="H36" s="1"/>
@@ -3536,8 +3560,8 @@
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3595,7 +3619,7 @@
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3624,7 +3648,7 @@
     </row>
     <row r="41" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="44" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -9517,13 +9541,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="45" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="2"/>
@@ -9551,13 +9575,13 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="47">
         <v>43831</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="46" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="2"/>
@@ -9585,13 +9609,13 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="47">
         <v>43830</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="46" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="2"/>
@@ -9619,13 +9643,13 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="47">
         <v>43831</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="2"/>
@@ -9653,13 +9677,13 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="47">
         <v>43850</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="2"/>
@@ -9687,13 +9711,13 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="47">
         <v>43851</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D6" s="2"/>
@@ -9721,13 +9745,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="47">
         <v>43852</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="2"/>
@@ -9755,13 +9779,13 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="47">
         <v>43853</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="2"/>
@@ -9789,13 +9813,13 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="47">
         <v>43854</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="2"/>
@@ -9823,13 +9847,13 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="47">
         <v>43857</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="2"/>
@@ -9857,13 +9881,13 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="47">
         <v>43858</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="2"/>
@@ -9891,13 +9915,13 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="47">
         <v>43859</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="2"/>
@@ -9925,13 +9949,13 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="47">
         <v>43860</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D13" s="2"/>
@@ -9959,13 +9983,13 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+      <c r="A14" s="46">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="47">
         <v>43861</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="46" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="2"/>
@@ -9993,13 +10017,13 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
+      <c r="A15" s="46">
         <v>14</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="47">
         <v>43936</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="46" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="2"/>
@@ -10027,13 +10051,13 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+      <c r="A16" s="46">
         <v>15</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="47">
         <v>43951</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="46" t="s">
         <v>98</v>
       </c>
       <c r="D16" s="2"/>
@@ -10061,13 +10085,13 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="A17" s="46">
         <v>16</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="47">
         <v>43952</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="46" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="2"/>
@@ -10095,13 +10119,13 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="A18" s="46">
         <v>17</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="47">
         <v>44076</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="2"/>
@@ -37685,7 +37709,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="48" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="1"/>
@@ -37700,11 +37724,11 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="50" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="1"/>
@@ -37759,10 +37783,10 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="8" t="s">
         <v>108</v>
       </c>
@@ -37788,10 +37812,10 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="8" t="s">
         <v>113</v>
       </c>
@@ -37817,10 +37841,10 @@
       <c r="A9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
         <v>119</v>
@@ -37844,10 +37868,10 @@
       <c r="A10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
@@ -37881,7 +37905,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -37896,25 +37920,25 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="55" t="s">
         <v>115</v>
       </c>
       <c r="H12" s="1"/>
@@ -37927,26 +37951,26 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="58">
         <v>43252</v>
       </c>
-      <c r="D13" s="49" t="str">
+      <c r="D13" s="59" t="str">
         <f t="shared" ref="D13:D135" si="0">TEXT(C13,"ddd")</f>
         <v>T6</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="60" t="s">
         <v>133</v>
       </c>
       <c r="H13" s="1"/>
@@ -37959,11 +37983,11 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="61">
         <f t="shared" ref="C14:C135" si="1">IF(TEXT(C13+1,"ddd")="sat",C13+3,IF(TEXT(C13+1,"ddd")="sun",C13+2,C13+1))</f>
         <v>43253</v>
       </c>
@@ -37977,7 +38001,7 @@
       <c r="F14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="62" t="s">
         <v>133</v>
       </c>
       <c r="H14" s="1"/>
@@ -37990,11 +38014,11 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="61">
         <f t="shared" si="1"/>
         <v>43254</v>
       </c>
@@ -38008,7 +38032,7 @@
       <c r="F15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="62" t="s">
         <v>135</v>
       </c>
       <c r="H15" s="1"/>
@@ -38021,11 +38045,11 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="61">
         <f t="shared" si="1"/>
         <v>43255</v>
       </c>
@@ -38039,7 +38063,7 @@
       <c r="F16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="62" t="s">
         <v>135</v>
       </c>
       <c r="H16" s="1"/>
@@ -38052,25 +38076,25 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="64">
         <f t="shared" si="1"/>
         <v>43256</v>
       </c>
-      <c r="D17" s="55" t="str">
+      <c r="D17" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="66" t="s">
         <v>137</v>
       </c>
       <c r="H17" s="1"/>
@@ -38083,25 +38107,25 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="58">
         <f t="shared" si="1"/>
         <v>43257</v>
       </c>
-      <c r="D18" s="49" t="str">
+      <c r="D18" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="60" t="s">
         <v>137</v>
       </c>
       <c r="H18" s="1"/>
@@ -38114,11 +38138,11 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="61">
         <f t="shared" si="1"/>
         <v>43258</v>
       </c>
@@ -38132,7 +38156,7 @@
       <c r="F19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="62" t="s">
         <v>139</v>
       </c>
       <c r="H19" s="1"/>
@@ -38145,11 +38169,11 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="61">
         <f t="shared" si="1"/>
         <v>43259</v>
       </c>
@@ -38163,7 +38187,7 @@
       <c r="F20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="62" t="s">
         <v>139</v>
       </c>
       <c r="H20" s="1"/>
@@ -38176,11 +38200,11 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="61">
         <f t="shared" si="1"/>
         <v>43260</v>
       </c>
@@ -38194,7 +38218,7 @@
       <c r="F21" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="62" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="1"/>
@@ -38207,25 +38231,25 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="64">
         <f t="shared" si="1"/>
         <v>43261</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="66" t="s">
         <v>141</v>
       </c>
       <c r="H22" s="1"/>
@@ -38238,25 +38262,25 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="58">
         <f t="shared" si="1"/>
         <v>43262</v>
       </c>
-      <c r="D23" s="49" t="str">
+      <c r="D23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="60" t="s">
         <v>145</v>
       </c>
       <c r="H23" s="1"/>
@@ -38269,11 +38293,11 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="61">
         <f t="shared" si="1"/>
         <v>43263</v>
       </c>
@@ -38287,7 +38311,7 @@
       <c r="F24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="62" t="s">
         <v>145</v>
       </c>
       <c r="H24" s="1"/>
@@ -38300,11 +38324,11 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="61">
         <f t="shared" si="1"/>
         <v>43264</v>
       </c>
@@ -38318,7 +38342,7 @@
       <c r="F25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="62" t="s">
         <v>147</v>
       </c>
       <c r="H25" s="1"/>
@@ -38331,11 +38355,11 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="61">
         <f t="shared" si="1"/>
         <v>43265</v>
       </c>
@@ -38349,7 +38373,7 @@
       <c r="F26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="62" t="s">
         <v>147</v>
       </c>
       <c r="H26" s="1"/>
@@ -38362,25 +38386,25 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="53" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="64">
         <f t="shared" si="1"/>
         <v>43266</v>
       </c>
-      <c r="D27" s="55" t="str">
+      <c r="D27" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="66" t="s">
         <v>149</v>
       </c>
       <c r="H27" s="1"/>
@@ -38393,25 +38417,25 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="58">
         <f t="shared" si="1"/>
         <v>43267</v>
       </c>
-      <c r="D28" s="49" t="str">
+      <c r="D28" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="60" t="s">
         <v>149</v>
       </c>
       <c r="H28" s="1"/>
@@ -38424,11 +38448,11 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="61">
         <f t="shared" si="1"/>
         <v>43268</v>
       </c>
@@ -38442,7 +38466,7 @@
       <c r="F29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="62" t="s">
         <v>151</v>
       </c>
       <c r="H29" s="1"/>
@@ -38455,11 +38479,11 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="61">
         <f t="shared" si="1"/>
         <v>43269</v>
       </c>
@@ -38473,7 +38497,7 @@
       <c r="F30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="62" t="s">
         <v>151</v>
       </c>
       <c r="H30" s="1"/>
@@ -38486,11 +38510,11 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="61">
         <f t="shared" si="1"/>
         <v>43270</v>
       </c>
@@ -38504,7 +38528,7 @@
       <c r="F31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="62" t="s">
         <v>153</v>
       </c>
       <c r="H31" s="1"/>
@@ -38517,25 +38541,25 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="53" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="54">
+      <c r="C32" s="64">
         <f t="shared" si="1"/>
         <v>43271</v>
       </c>
-      <c r="D32" s="55" t="str">
+      <c r="D32" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="56" t="s">
+      <c r="G32" s="66" t="s">
         <v>153</v>
       </c>
       <c r="H32" s="1"/>
@@ -38548,25 +38572,25 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="58">
         <f t="shared" si="1"/>
         <v>43272</v>
       </c>
-      <c r="D33" s="49" t="str">
+      <c r="D33" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="60" t="s">
         <v>157</v>
       </c>
       <c r="H33" s="1"/>
@@ -38579,11 +38603,11 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="61">
         <f t="shared" si="1"/>
         <v>43273</v>
       </c>
@@ -38597,7 +38621,7 @@
       <c r="F34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="62" t="s">
         <v>157</v>
       </c>
       <c r="H34" s="1"/>
@@ -38610,11 +38634,11 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="61">
         <f t="shared" si="1"/>
         <v>43274</v>
       </c>
@@ -38628,7 +38652,7 @@
       <c r="F35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="62" t="s">
         <v>159</v>
       </c>
       <c r="H35" s="1"/>
@@ -38641,11 +38665,11 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="61">
         <f t="shared" si="1"/>
         <v>43275</v>
       </c>
@@ -38659,7 +38683,7 @@
       <c r="F36" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="62" t="s">
         <v>159</v>
       </c>
       <c r="H36" s="1"/>
@@ -38672,25 +38696,25 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="64">
         <f t="shared" si="1"/>
         <v>43276</v>
       </c>
-      <c r="D37" s="55" t="str">
+      <c r="D37" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="55" t="s">
+      <c r="F37" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="56" t="s">
+      <c r="G37" s="66" t="s">
         <v>162</v>
       </c>
       <c r="H37" s="1"/>
@@ -38703,25 +38727,25 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="58">
         <f t="shared" si="1"/>
         <v>43277</v>
       </c>
-      <c r="D38" s="49" t="str">
+      <c r="D38" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="60" t="s">
         <v>162</v>
       </c>
       <c r="H38" s="1"/>
@@ -38734,11 +38758,11 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="61">
         <f t="shared" si="1"/>
         <v>43278</v>
       </c>
@@ -38752,7 +38776,7 @@
       <c r="F39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="62" t="s">
         <v>166</v>
       </c>
       <c r="H39" s="1"/>
@@ -38765,11 +38789,11 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="61">
         <f t="shared" si="1"/>
         <v>43279</v>
       </c>
@@ -38783,7 +38807,7 @@
       <c r="F40" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="62" t="s">
         <v>166</v>
       </c>
       <c r="H40" s="1"/>
@@ -38796,11 +38820,11 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="61">
         <f t="shared" si="1"/>
         <v>43280</v>
       </c>
@@ -38814,7 +38838,7 @@
       <c r="F41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="62" t="s">
         <v>170</v>
       </c>
       <c r="H41" s="1"/>
@@ -38827,25 +38851,25 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="53" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="54">
+      <c r="C42" s="64">
         <f t="shared" si="1"/>
         <v>43281</v>
       </c>
-      <c r="D42" s="55" t="str">
+      <c r="D42" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="F42" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="66" t="s">
         <v>170</v>
       </c>
       <c r="H42" s="1"/>
@@ -38858,25 +38882,25 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="47" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="48">
+      <c r="C43" s="58">
         <f t="shared" si="1"/>
         <v>43282</v>
       </c>
-      <c r="D43" s="49" t="str">
+      <c r="D43" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="60" t="s">
         <v>176</v>
       </c>
       <c r="H43" s="1"/>
@@ -38889,11 +38913,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="61">
         <f t="shared" si="1"/>
         <v>43283</v>
       </c>
@@ -38907,7 +38931,7 @@
       <c r="F44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="62" t="s">
         <v>176</v>
       </c>
       <c r="H44" s="1"/>
@@ -38920,11 +38944,11 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="61">
         <f t="shared" si="1"/>
         <v>43284</v>
       </c>
@@ -38938,7 +38962,7 @@
       <c r="F45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="52" t="s">
+      <c r="G45" s="62" t="s">
         <v>180</v>
       </c>
       <c r="H45" s="1"/>
@@ -38951,11 +38975,11 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="61">
         <f t="shared" si="1"/>
         <v>43285</v>
       </c>
@@ -38969,7 +38993,7 @@
       <c r="F46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="62" t="s">
         <v>180</v>
       </c>
       <c r="H46" s="1"/>
@@ -38982,25 +39006,25 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="53" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="54">
+      <c r="C47" s="64">
         <f t="shared" si="1"/>
         <v>43286</v>
       </c>
-      <c r="D47" s="55" t="str">
+      <c r="D47" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E47" s="55" t="s">
+      <c r="E47" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="G47" s="56" t="s">
+      <c r="G47" s="66" t="s">
         <v>184</v>
       </c>
       <c r="H47" s="1"/>
@@ -39013,25 +39037,25 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="58">
         <f t="shared" si="1"/>
         <v>43287</v>
       </c>
-      <c r="D48" s="49" t="str">
+      <c r="D48" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="60" t="s">
         <v>184</v>
       </c>
       <c r="H48" s="1"/>
@@ -39044,11 +39068,11 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="61">
         <f t="shared" si="1"/>
         <v>43288</v>
       </c>
@@ -39062,7 +39086,7 @@
       <c r="F49" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="62" t="s">
         <v>188</v>
       </c>
       <c r="H49" s="1"/>
@@ -39075,11 +39099,11 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="61">
         <f t="shared" si="1"/>
         <v>43289</v>
       </c>
@@ -39093,7 +39117,7 @@
       <c r="F50" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="52" t="s">
+      <c r="G50" s="62" t="s">
         <v>188</v>
       </c>
       <c r="H50" s="1"/>
@@ -39106,11 +39130,11 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="61">
         <f t="shared" si="1"/>
         <v>43290</v>
       </c>
@@ -39124,7 +39148,7 @@
       <c r="F51" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G51" s="52" t="s">
+      <c r="G51" s="62" t="s">
         <v>192</v>
       </c>
       <c r="H51" s="1"/>
@@ -39137,25 +39161,25 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="64">
         <f t="shared" si="1"/>
         <v>43291</v>
       </c>
-      <c r="D52" s="55" t="str">
+      <c r="D52" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="F52" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="66" t="s">
         <v>192</v>
       </c>
       <c r="H52" s="1"/>
@@ -39168,25 +39192,25 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="58">
         <f t="shared" si="1"/>
         <v>43292</v>
       </c>
-      <c r="D53" s="49" t="str">
+      <c r="D53" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="G53" s="50" t="s">
+      <c r="G53" s="60" t="s">
         <v>198</v>
       </c>
       <c r="H53" s="1"/>
@@ -39199,11 +39223,11 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="61">
         <f t="shared" si="1"/>
         <v>43293</v>
       </c>
@@ -39217,7 +39241,7 @@
       <c r="F54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G54" s="62" t="s">
         <v>198</v>
       </c>
       <c r="H54" s="1"/>
@@ -39230,11 +39254,11 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="61">
         <f t="shared" si="1"/>
         <v>43294</v>
       </c>
@@ -39248,7 +39272,7 @@
       <c r="F55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="52" t="s">
+      <c r="G55" s="62" t="s">
         <v>202</v>
       </c>
       <c r="H55" s="1"/>
@@ -39261,11 +39285,11 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="61">
         <f t="shared" si="1"/>
         <v>43295</v>
       </c>
@@ -39279,7 +39303,7 @@
       <c r="F56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="52" t="s">
+      <c r="G56" s="62" t="s">
         <v>202</v>
       </c>
       <c r="H56" s="1"/>
@@ -39292,25 +39316,25 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="54">
+      <c r="C57" s="64">
         <f t="shared" si="1"/>
         <v>43296</v>
       </c>
-      <c r="D57" s="55" t="str">
+      <c r="D57" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F57" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="56" t="s">
+      <c r="G57" s="66" t="s">
         <v>206</v>
       </c>
       <c r="H57" s="1"/>
@@ -39323,25 +39347,25 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="47" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="58">
         <f t="shared" si="1"/>
         <v>43297</v>
       </c>
-      <c r="D58" s="49" t="str">
+      <c r="D58" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="G58" s="50" t="s">
+      <c r="G58" s="60" t="s">
         <v>206</v>
       </c>
       <c r="H58" s="1"/>
@@ -39354,11 +39378,11 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="61">
         <f t="shared" si="1"/>
         <v>43298</v>
       </c>
@@ -39372,7 +39396,7 @@
       <c r="F59" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="62" t="s">
         <v>210</v>
       </c>
       <c r="H59" s="1"/>
@@ -39385,11 +39409,11 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="61">
         <f t="shared" si="1"/>
         <v>43299</v>
       </c>
@@ -39403,7 +39427,7 @@
       <c r="F60" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G60" s="52" t="s">
+      <c r="G60" s="62" t="s">
         <v>210</v>
       </c>
       <c r="H60" s="1"/>
@@ -39416,11 +39440,11 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41" t="s">
+      <c r="A61" s="51"/>
+      <c r="B61" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="61">
         <f t="shared" si="1"/>
         <v>43300</v>
       </c>
@@ -39434,7 +39458,7 @@
       <c r="F61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G61" s="52" t="s">
+      <c r="G61" s="62" t="s">
         <v>214</v>
       </c>
       <c r="H61" s="1"/>
@@ -39447,25 +39471,25 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="53" t="s">
+      <c r="A62" s="51"/>
+      <c r="B62" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="64">
         <f t="shared" si="1"/>
         <v>43301</v>
       </c>
-      <c r="D62" s="55" t="str">
+      <c r="D62" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="F62" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="56" t="s">
+      <c r="G62" s="66" t="s">
         <v>214</v>
       </c>
       <c r="H62" s="1"/>
@@ -39478,25 +39502,25 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="58" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="59">
+      <c r="C63" s="69">
         <f t="shared" si="1"/>
         <v>43302</v>
       </c>
-      <c r="D63" s="60" t="str">
+      <c r="D63" s="70" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E63" s="61" t="s">
+      <c r="E63" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="F63" s="61" t="s">
+      <c r="F63" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="G63" s="62"/>
+      <c r="G63" s="72"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -39507,27 +39531,27 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="48">
+      <c r="C64" s="58">
         <f t="shared" si="1"/>
         <v>43303</v>
       </c>
-      <c r="D64" s="49" t="str">
+      <c r="D64" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="60" t="s">
         <v>28</v>
       </c>
       <c r="H64" s="1"/>
@@ -39540,11 +39564,11 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="41" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="61">
         <f t="shared" si="1"/>
         <v>43304</v>
       </c>
@@ -39558,7 +39582,7 @@
       <c r="F65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="52" t="s">
+      <c r="G65" s="62" t="s">
         <v>28</v>
       </c>
       <c r="H65" s="1"/>
@@ -39571,11 +39595,11 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="73"/>
+      <c r="B66" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="61">
         <f t="shared" si="1"/>
         <v>43305</v>
       </c>
@@ -39589,7 +39613,7 @@
       <c r="F66" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="52" t="s">
+      <c r="G66" s="62" t="s">
         <v>32</v>
       </c>
       <c r="H66" s="1"/>
@@ -39602,11 +39626,11 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="41" t="s">
+      <c r="A67" s="73"/>
+      <c r="B67" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="61">
         <f t="shared" si="1"/>
         <v>43306</v>
       </c>
@@ -39620,7 +39644,7 @@
       <c r="F67" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="62" t="s">
         <v>32</v>
       </c>
       <c r="H67" s="1"/>
@@ -39633,25 +39657,25 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="53" t="s">
+      <c r="A68" s="73"/>
+      <c r="B68" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C68" s="54">
+      <c r="C68" s="64">
         <f t="shared" si="1"/>
         <v>43307</v>
       </c>
-      <c r="D68" s="55" t="str">
+      <c r="D68" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F68" s="55" t="s">
+      <c r="F68" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="56" t="s">
+      <c r="G68" s="66" t="s">
         <v>36</v>
       </c>
       <c r="H68" s="1"/>
@@ -39664,25 +39688,25 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="47" t="s">
+      <c r="A69" s="74"/>
+      <c r="B69" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="58">
         <f t="shared" si="1"/>
         <v>43308</v>
       </c>
-      <c r="D69" s="49" t="str">
+      <c r="D69" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G69" s="60" t="s">
         <v>36</v>
       </c>
       <c r="H69" s="1"/>
@@ -39695,11 +39719,11 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="61">
         <f t="shared" si="1"/>
         <v>43309</v>
       </c>
@@ -39713,7 +39737,7 @@
       <c r="F70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G70" s="52" t="s">
+      <c r="G70" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H70" s="1"/>
@@ -39726,11 +39750,11 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="61">
         <f t="shared" si="1"/>
         <v>43310</v>
       </c>
@@ -39744,7 +39768,7 @@
       <c r="F71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G71" s="52" t="s">
+      <c r="G71" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H71" s="1"/>
@@ -39757,11 +39781,11 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="61">
         <f t="shared" si="1"/>
         <v>43311</v>
       </c>
@@ -39775,7 +39799,7 @@
       <c r="F72" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="52" t="s">
+      <c r="G72" s="62" t="s">
         <v>46</v>
       </c>
       <c r="H72" s="1"/>
@@ -39788,25 +39812,25 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="51"/>
+      <c r="B73" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="64">
         <f t="shared" si="1"/>
         <v>43312</v>
       </c>
-      <c r="D73" s="55" t="str">
+      <c r="D73" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E73" s="57" t="s">
+      <c r="E73" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="F73" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="G73" s="56" t="s">
+      <c r="G73" s="66" t="s">
         <v>46</v>
       </c>
       <c r="H73" s="1"/>
@@ -39819,25 +39843,25 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="58">
         <f t="shared" si="1"/>
         <v>43313</v>
       </c>
-      <c r="D74" s="49" t="str">
+      <c r="D74" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G74" s="50" t="s">
+      <c r="G74" s="60" t="s">
         <v>49</v>
       </c>
       <c r="H74" s="1"/>
@@ -39850,11 +39874,11 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="61">
         <f t="shared" si="1"/>
         <v>43314</v>
       </c>
@@ -39868,7 +39892,7 @@
       <c r="F75" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H75" s="1"/>
@@ -39881,11 +39905,11 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41" t="s">
+      <c r="A76" s="51"/>
+      <c r="B76" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="51">
+      <c r="C76" s="61">
         <f t="shared" si="1"/>
         <v>43315</v>
       </c>
@@ -39899,7 +39923,7 @@
       <c r="F76" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G76" s="52" t="s">
+      <c r="G76" s="62" t="s">
         <v>53</v>
       </c>
       <c r="H76" s="1"/>
@@ -39912,11 +39936,11 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41" t="s">
+      <c r="A77" s="51"/>
+      <c r="B77" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C77" s="51">
+      <c r="C77" s="61">
         <f t="shared" si="1"/>
         <v>43316</v>
       </c>
@@ -39930,7 +39954,7 @@
       <c r="F77" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G77" s="52" t="s">
+      <c r="G77" s="62" t="s">
         <v>53</v>
       </c>
       <c r="H77" s="1"/>
@@ -39943,25 +39967,25 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="53" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="54">
+      <c r="C78" s="64">
         <f t="shared" si="1"/>
         <v>43317</v>
       </c>
-      <c r="D78" s="55" t="str">
+      <c r="D78" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F78" s="55" t="s">
+      <c r="F78" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G78" s="56" t="s">
+      <c r="G78" s="66" t="s">
         <v>57</v>
       </c>
       <c r="H78" s="1"/>
@@ -39974,25 +39998,25 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="47" t="s">
+      <c r="A79" s="51"/>
+      <c r="B79" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C79" s="48">
+      <c r="C79" s="58">
         <f t="shared" si="1"/>
         <v>43318</v>
       </c>
-      <c r="D79" s="49" t="str">
+      <c r="D79" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="49" t="s">
+      <c r="F79" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="50" t="s">
+      <c r="G79" s="60" t="s">
         <v>57</v>
       </c>
       <c r="H79" s="1"/>
@@ -40005,11 +40029,11 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41" t="s">
+      <c r="A80" s="51"/>
+      <c r="B80" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="51">
+      <c r="C80" s="61">
         <f t="shared" si="1"/>
         <v>43319</v>
       </c>
@@ -40023,7 +40047,7 @@
       <c r="F80" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H80" s="1"/>
@@ -40036,11 +40060,11 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41" t="s">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="61">
         <f t="shared" si="1"/>
         <v>43320</v>
       </c>
@@ -40054,7 +40078,7 @@
       <c r="F81" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G81" s="52" t="s">
+      <c r="G81" s="62" t="s">
         <v>61</v>
       </c>
       <c r="H81" s="1"/>
@@ -40067,11 +40091,11 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="41" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="51">
+      <c r="C82" s="61">
         <f t="shared" si="1"/>
         <v>43321</v>
       </c>
@@ -40085,7 +40109,7 @@
       <c r="F82" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="62" t="s">
         <v>65</v>
       </c>
       <c r="H82" s="1"/>
@@ -40098,25 +40122,25 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41"/>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="51"/>
+      <c r="B83" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="54">
+      <c r="C83" s="64">
         <f t="shared" si="1"/>
         <v>43322</v>
       </c>
-      <c r="D83" s="55" t="str">
+      <c r="D83" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E83" s="57" t="s">
+      <c r="E83" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="F83" s="57" t="s">
+      <c r="F83" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="G83" s="56" t="s">
+      <c r="G83" s="66" t="s">
         <v>65</v>
       </c>
       <c r="H83" s="1"/>
@@ -40129,25 +40153,25 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="58" t="s">
+      <c r="A84" s="63"/>
+      <c r="B84" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="59">
+      <c r="C84" s="69">
         <f t="shared" si="1"/>
         <v>43323</v>
       </c>
-      <c r="D84" s="60" t="str">
+      <c r="D84" s="70" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E84" s="61" t="s">
+      <c r="E84" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="F84" s="61" t="s">
+      <c r="F84" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="G84" s="62"/>
+      <c r="G84" s="72"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -40158,27 +40182,27 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="B85" s="47" t="s">
+      <c r="B85" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="48">
+      <c r="C85" s="58">
         <f t="shared" si="1"/>
         <v>43324</v>
       </c>
-      <c r="D85" s="49" t="str">
+      <c r="D85" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="G85" s="50" t="s">
+      <c r="G85" s="60" t="s">
         <v>247</v>
       </c>
       <c r="H85" s="1"/>
@@ -40191,11 +40215,11 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
-      <c r="B86" s="41" t="s">
+      <c r="A86" s="73"/>
+      <c r="B86" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="51">
+      <c r="C86" s="61">
         <f t="shared" si="1"/>
         <v>43325</v>
       </c>
@@ -40209,7 +40233,7 @@
       <c r="F86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G86" s="52" t="s">
+      <c r="G86" s="62" t="s">
         <v>247</v>
       </c>
       <c r="H86" s="1"/>
@@ -40222,11 +40246,11 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="61">
         <f t="shared" si="1"/>
         <v>43326</v>
       </c>
@@ -40240,7 +40264,7 @@
       <c r="F87" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G87" s="52" t="s">
+      <c r="G87" s="62" t="s">
         <v>251</v>
       </c>
       <c r="H87" s="1"/>
@@ -40253,11 +40277,11 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63"/>
-      <c r="B88" s="41" t="s">
+      <c r="A88" s="73"/>
+      <c r="B88" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="51">
+      <c r="C88" s="61">
         <f t="shared" si="1"/>
         <v>43327</v>
       </c>
@@ -40271,7 +40295,7 @@
       <c r="F88" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G88" s="52" t="s">
+      <c r="G88" s="62" t="s">
         <v>251</v>
       </c>
       <c r="H88" s="1"/>
@@ -40284,25 +40308,25 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="63"/>
-      <c r="B89" s="53" t="s">
+      <c r="A89" s="73"/>
+      <c r="B89" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="64">
         <f t="shared" si="1"/>
         <v>43328</v>
       </c>
-      <c r="D89" s="55" t="str">
+      <c r="D89" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E89" s="55" t="s">
+      <c r="E89" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="G89" s="56" t="s">
+      <c r="G89" s="66" t="s">
         <v>254</v>
       </c>
       <c r="H89" s="1"/>
@@ -40315,25 +40339,25 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
-      <c r="B90" s="47" t="s">
+      <c r="A90" s="74"/>
+      <c r="B90" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="48">
+      <c r="C90" s="58">
         <f t="shared" si="1"/>
         <v>43329</v>
       </c>
-      <c r="D90" s="49" t="str">
+      <c r="D90" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="F90" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="G90" s="50" t="s">
+      <c r="G90" s="60" t="s">
         <v>254</v>
       </c>
       <c r="H90" s="1"/>
@@ -40346,11 +40370,11 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41" t="s">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C91" s="51">
+      <c r="C91" s="61">
         <f t="shared" si="1"/>
         <v>43330</v>
       </c>
@@ -40364,7 +40388,7 @@
       <c r="F91" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G91" s="52" t="s">
+      <c r="G91" s="62" t="s">
         <v>257</v>
       </c>
       <c r="H91" s="1"/>
@@ -40377,11 +40401,11 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="41" t="s">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C92" s="51">
+      <c r="C92" s="61">
         <f t="shared" si="1"/>
         <v>43331</v>
       </c>
@@ -40395,7 +40419,7 @@
       <c r="F92" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G92" s="52" t="s">
+      <c r="G92" s="62" t="s">
         <v>257</v>
       </c>
       <c r="H92" s="1"/>
@@ -40408,11 +40432,11 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41" t="s">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="61">
         <f t="shared" si="1"/>
         <v>43332</v>
       </c>
@@ -40426,7 +40450,7 @@
       <c r="F93" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G93" s="52" t="s">
+      <c r="G93" s="62" t="s">
         <v>260</v>
       </c>
       <c r="H93" s="1"/>
@@ -40439,25 +40463,25 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="64">
         <f t="shared" si="1"/>
         <v>43333</v>
       </c>
-      <c r="D94" s="55" t="str">
+      <c r="D94" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E94" s="57" t="s">
+      <c r="E94" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="F94" s="57" t="s">
+      <c r="F94" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="G94" s="56" t="s">
+      <c r="G94" s="66" t="s">
         <v>260</v>
       </c>
       <c r="H94" s="1"/>
@@ -40470,25 +40494,25 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C95" s="58">
         <f t="shared" si="1"/>
         <v>43334</v>
       </c>
-      <c r="D95" s="49" t="str">
+      <c r="D95" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="G95" s="50" t="s">
+      <c r="G95" s="60" t="s">
         <v>265</v>
       </c>
       <c r="H95" s="1"/>
@@ -40501,11 +40525,11 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C96" s="51">
+      <c r="C96" s="61">
         <f t="shared" si="1"/>
         <v>43335</v>
       </c>
@@ -40519,7 +40543,7 @@
       <c r="F96" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G96" s="52" t="s">
+      <c r="G96" s="62" t="s">
         <v>265</v>
       </c>
       <c r="H96" s="1"/>
@@ -40532,11 +40556,11 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="41" t="s">
+      <c r="A97" s="51"/>
+      <c r="B97" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C97" s="51">
+      <c r="C97" s="61">
         <f t="shared" si="1"/>
         <v>43336</v>
       </c>
@@ -40550,7 +40574,7 @@
       <c r="F97" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G97" s="52" t="s">
+      <c r="G97" s="62" t="s">
         <v>268</v>
       </c>
       <c r="H97" s="1"/>
@@ -40563,11 +40587,11 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
-      <c r="B98" s="41" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C98" s="51">
+      <c r="C98" s="61">
         <f t="shared" si="1"/>
         <v>43337</v>
       </c>
@@ -40581,7 +40605,7 @@
       <c r="F98" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G98" s="52" t="s">
+      <c r="G98" s="62" t="s">
         <v>268</v>
       </c>
       <c r="H98" s="1"/>
@@ -40594,25 +40618,25 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="53" t="s">
+      <c r="A99" s="51"/>
+      <c r="B99" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C99" s="54">
+      <c r="C99" s="64">
         <f t="shared" si="1"/>
         <v>43338</v>
       </c>
-      <c r="D99" s="55" t="str">
+      <c r="D99" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E99" s="55" t="s">
+      <c r="E99" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="F99" s="55" t="s">
+      <c r="F99" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="G99" s="56" t="s">
+      <c r="G99" s="66" t="s">
         <v>271</v>
       </c>
       <c r="H99" s="1"/>
@@ -40625,25 +40649,25 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
-      <c r="B100" s="47" t="s">
+      <c r="A100" s="51"/>
+      <c r="B100" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C100" s="48">
+      <c r="C100" s="58">
         <f t="shared" si="1"/>
         <v>43339</v>
       </c>
-      <c r="D100" s="49" t="str">
+      <c r="D100" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F100" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="60" t="s">
         <v>271</v>
       </c>
       <c r="H100" s="1"/>
@@ -40656,11 +40680,11 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="41" t="s">
+      <c r="A101" s="51"/>
+      <c r="B101" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="51">
+      <c r="C101" s="61">
         <f t="shared" si="1"/>
         <v>43340</v>
       </c>
@@ -40674,7 +40698,7 @@
       <c r="F101" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G101" s="52" t="s">
+      <c r="G101" s="62" t="s">
         <v>274</v>
       </c>
       <c r="H101" s="1"/>
@@ -40687,11 +40711,11 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C102" s="51">
+      <c r="C102" s="61">
         <f t="shared" si="1"/>
         <v>43341</v>
       </c>
@@ -40705,7 +40729,7 @@
       <c r="F102" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G102" s="52" t="s">
+      <c r="G102" s="62" t="s">
         <v>274</v>
       </c>
       <c r="H102" s="1"/>
@@ -40718,11 +40742,11 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="41" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="51">
+      <c r="C103" s="61">
         <f t="shared" si="1"/>
         <v>43342</v>
       </c>
@@ -40736,7 +40760,7 @@
       <c r="F103" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G103" s="52" t="s">
+      <c r="G103" s="62" t="s">
         <v>277</v>
       </c>
       <c r="H103" s="1"/>
@@ -40749,25 +40773,25 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="53" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="54">
+      <c r="C104" s="64">
         <f t="shared" si="1"/>
         <v>43343</v>
       </c>
-      <c r="D104" s="55" t="str">
+      <c r="D104" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E104" s="57" t="s">
+      <c r="E104" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="F104" s="57" t="s">
+      <c r="F104" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="G104" s="56" t="s">
+      <c r="G104" s="66" t="s">
         <v>277</v>
       </c>
       <c r="H104" s="1"/>
@@ -40780,25 +40804,25 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
-      <c r="B105" s="47" t="s">
+      <c r="A105" s="51"/>
+      <c r="B105" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C105" s="48">
+      <c r="C105" s="58">
         <f t="shared" si="1"/>
         <v>43344</v>
       </c>
-      <c r="D105" s="49" t="str">
+      <c r="D105" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E105" s="65" t="s">
+      <c r="E105" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="F105" s="65" t="s">
+      <c r="F105" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="G105" s="66"/>
+      <c r="G105" s="76"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -40809,11 +40833,11 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="41" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="C106" s="51">
+      <c r="C106" s="61">
         <f t="shared" si="1"/>
         <v>43345</v>
       </c>
@@ -40827,7 +40851,7 @@
       <c r="F106" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G106" s="52" t="s">
+      <c r="G106" s="62" t="s">
         <v>284</v>
       </c>
       <c r="H106" s="1"/>
@@ -40840,11 +40864,11 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="41" t="s">
+      <c r="A107" s="51"/>
+      <c r="B107" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C107" s="51">
+      <c r="C107" s="61">
         <f t="shared" si="1"/>
         <v>43346</v>
       </c>
@@ -40858,7 +40882,7 @@
       <c r="F107" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G107" s="52" t="s">
+      <c r="G107" s="62" t="s">
         <v>284</v>
       </c>
       <c r="H107" s="1"/>
@@ -40871,11 +40895,11 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="41" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C108" s="51">
+      <c r="C108" s="61">
         <f t="shared" si="1"/>
         <v>43347</v>
       </c>
@@ -40889,7 +40913,7 @@
       <c r="F108" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G108" s="52" t="s">
+      <c r="G108" s="62" t="s">
         <v>287</v>
       </c>
       <c r="H108" s="1"/>
@@ -40902,11 +40926,11 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="41" t="s">
+      <c r="A109" s="51"/>
+      <c r="B109" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C109" s="51">
+      <c r="C109" s="61">
         <f t="shared" si="1"/>
         <v>43348</v>
       </c>
@@ -40920,7 +40944,7 @@
       <c r="F109" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="62" t="s">
         <v>287</v>
       </c>
       <c r="H109" s="1"/>
@@ -40933,25 +40957,25 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="47" t="s">
+      <c r="A110" s="51"/>
+      <c r="B110" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C110" s="58">
         <f t="shared" si="1"/>
         <v>43349</v>
       </c>
-      <c r="D110" s="49" t="str">
+      <c r="D110" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E110" s="67" t="s">
+      <c r="E110" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="F110" s="67" t="s">
+      <c r="F110" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="G110" s="68" t="s">
+      <c r="G110" s="78" t="s">
         <v>290</v>
       </c>
       <c r="H110" s="1"/>
@@ -40964,11 +40988,11 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41" t="s">
+      <c r="A111" s="51"/>
+      <c r="B111" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C111" s="51">
+      <c r="C111" s="61">
         <f t="shared" si="1"/>
         <v>43350</v>
       </c>
@@ -40976,13 +41000,13 @@
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E111" s="69" t="s">
+      <c r="E111" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="69" t="s">
+      <c r="F111" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="G111" s="70" t="s">
+      <c r="G111" s="80" t="s">
         <v>290</v>
       </c>
       <c r="H111" s="1"/>
@@ -40995,11 +41019,11 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="41" t="s">
+      <c r="A112" s="51"/>
+      <c r="B112" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C112" s="51">
+      <c r="C112" s="61">
         <f t="shared" si="1"/>
         <v>43351</v>
       </c>
@@ -41007,13 +41031,13 @@
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E112" s="69" t="s">
+      <c r="E112" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="F112" s="69" t="s">
+      <c r="F112" s="79" t="s">
         <v>293</v>
       </c>
-      <c r="G112" s="70" t="s">
+      <c r="G112" s="80" t="s">
         <v>293</v>
       </c>
       <c r="H112" s="1"/>
@@ -41026,11 +41050,11 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="41"/>
-      <c r="B113" s="41" t="s">
+      <c r="A113" s="51"/>
+      <c r="B113" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C113" s="51">
+      <c r="C113" s="61">
         <f t="shared" si="1"/>
         <v>43352</v>
       </c>
@@ -41038,13 +41062,13 @@
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="F113" s="34" t="s">
+      <c r="F113" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="G113" s="71" t="s">
+      <c r="G113" s="81" t="s">
         <v>296</v>
       </c>
       <c r="H113" s="1"/>
@@ -41057,25 +41081,25 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="53" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="C114" s="54">
+      <c r="C114" s="64">
         <f t="shared" si="1"/>
         <v>43353</v>
       </c>
-      <c r="D114" s="55" t="str">
+      <c r="D114" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E114" s="57" t="s">
+      <c r="E114" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="F114" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="G114" s="72" t="s">
+      <c r="G114" s="82" t="s">
         <v>299</v>
       </c>
       <c r="H114" s="1"/>
@@ -41088,25 +41112,25 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="47" t="s">
+      <c r="A115" s="51"/>
+      <c r="B115" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C115" s="48">
+      <c r="C115" s="58">
         <f t="shared" si="1"/>
         <v>43354</v>
       </c>
-      <c r="D115" s="49" t="str">
+      <c r="D115" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E115" s="73" t="s">
+      <c r="E115" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="F115" s="73" t="s">
+      <c r="F115" s="83" t="s">
         <v>302</v>
       </c>
-      <c r="G115" s="74" t="s">
+      <c r="G115" s="84" t="s">
         <v>302</v>
       </c>
       <c r="H115" s="1"/>
@@ -41119,11 +41143,11 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="41" t="s">
+      <c r="A116" s="51"/>
+      <c r="B116" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C116" s="51">
+      <c r="C116" s="61">
         <f t="shared" si="1"/>
         <v>43355</v>
       </c>
@@ -41131,13 +41155,13 @@
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E116" s="34" t="s">
+      <c r="E116" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="G116" s="71" t="s">
+      <c r="G116" s="81" t="s">
         <v>305</v>
       </c>
       <c r="H116" s="1"/>
@@ -41150,11 +41174,11 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41" t="s">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="C117" s="51">
+      <c r="C117" s="61">
         <f t="shared" si="1"/>
         <v>43356</v>
       </c>
@@ -41162,13 +41186,13 @@
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E117" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="F117" s="34" t="s">
+      <c r="F117" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="G117" s="71" t="s">
+      <c r="G117" s="81" t="s">
         <v>305</v>
       </c>
       <c r="H117" s="1"/>
@@ -41181,11 +41205,11 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
-      <c r="B118" s="41" t="s">
+      <c r="A118" s="51"/>
+      <c r="B118" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C118" s="51">
+      <c r="C118" s="61">
         <f t="shared" si="1"/>
         <v>43357</v>
       </c>
@@ -41193,13 +41217,13 @@
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E118" s="34" t="s">
+      <c r="E118" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F118" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="G118" s="71" t="s">
+      <c r="G118" s="81" t="s">
         <v>309</v>
       </c>
       <c r="H118" s="1"/>
@@ -41212,25 +41236,25 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="53" t="s">
+      <c r="A119" s="51"/>
+      <c r="B119" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="C119" s="54">
+      <c r="C119" s="64">
         <f t="shared" si="1"/>
         <v>43358</v>
       </c>
-      <c r="D119" s="55" t="str">
+      <c r="D119" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E119" s="75" t="s">
+      <c r="E119" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="F119" s="75" t="s">
+      <c r="F119" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="G119" s="76" t="s">
+      <c r="G119" s="86" t="s">
         <v>311</v>
       </c>
       <c r="H119" s="1"/>
@@ -41243,25 +41267,25 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="47" t="s">
+      <c r="A120" s="51"/>
+      <c r="B120" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="C120" s="48">
+      <c r="C120" s="58">
         <f t="shared" si="1"/>
         <v>43359</v>
       </c>
-      <c r="D120" s="49" t="str">
+      <c r="D120" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E120" s="77" t="s">
+      <c r="E120" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="F120" s="77" t="s">
+      <c r="F120" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="G120" s="78" t="s">
+      <c r="G120" s="88" t="s">
         <v>314</v>
       </c>
       <c r="H120" s="1"/>
@@ -41274,11 +41298,11 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
-      <c r="B121" s="41" t="s">
+      <c r="A121" s="51"/>
+      <c r="B121" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="C121" s="51">
+      <c r="C121" s="61">
         <f t="shared" si="1"/>
         <v>43360</v>
       </c>
@@ -41286,13 +41310,13 @@
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E121" s="79" t="s">
+      <c r="E121" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="F121" s="79" t="s">
+      <c r="F121" s="89" t="s">
         <v>314</v>
       </c>
-      <c r="G121" s="80" t="s">
+      <c r="G121" s="90" t="s">
         <v>314</v>
       </c>
       <c r="H121" s="1"/>
@@ -41305,11 +41329,11 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
-      <c r="B122" s="41" t="s">
+      <c r="A122" s="51"/>
+      <c r="B122" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="51">
+      <c r="C122" s="61">
         <f t="shared" si="1"/>
         <v>43361</v>
       </c>
@@ -41323,7 +41347,7 @@
       <c r="F122" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G122" s="52" t="s">
+      <c r="G122" s="62" t="s">
         <v>318</v>
       </c>
       <c r="H122" s="1"/>
@@ -41336,11 +41360,11 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41" t="s">
+      <c r="A123" s="51"/>
+      <c r="B123" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="C123" s="51">
+      <c r="C123" s="61">
         <f t="shared" si="1"/>
         <v>43362</v>
       </c>
@@ -41354,7 +41378,7 @@
       <c r="F123" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G123" s="52" t="s">
+      <c r="G123" s="62" t="s">
         <v>318</v>
       </c>
       <c r="H123" s="1"/>
@@ -41367,25 +41391,25 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="53" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="64">
         <f t="shared" si="1"/>
         <v>43363</v>
       </c>
-      <c r="D124" s="55" t="str">
+      <c r="D124" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E124" s="55" t="s">
+      <c r="E124" s="65" t="s">
         <v>321</v>
       </c>
-      <c r="F124" s="55" t="s">
+      <c r="F124" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="G124" s="56" t="s">
+      <c r="G124" s="66" t="s">
         <v>322</v>
       </c>
       <c r="H124" s="1"/>
@@ -41398,25 +41422,25 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="47" t="s">
+      <c r="A125" s="51"/>
+      <c r="B125" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="58">
         <f t="shared" si="1"/>
         <v>43364</v>
       </c>
-      <c r="D125" s="49" t="str">
+      <c r="D125" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E125" s="49" t="s">
+      <c r="E125" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="F125" s="49" t="s">
+      <c r="F125" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="G125" s="50" t="s">
+      <c r="G125" s="60" t="s">
         <v>322</v>
       </c>
       <c r="H125" s="1"/>
@@ -41429,11 +41453,11 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="41" t="s">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C126" s="51">
+      <c r="C126" s="61">
         <f t="shared" si="1"/>
         <v>43365</v>
       </c>
@@ -41441,13 +41465,13 @@
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E126" s="34" t="s">
+      <c r="E126" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="F126" s="34" t="s">
+      <c r="F126" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="G126" s="71" t="s">
+      <c r="G126" s="81" t="s">
         <v>325</v>
       </c>
       <c r="H126" s="1"/>
@@ -41460,11 +41484,11 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="41" t="s">
+      <c r="A127" s="51"/>
+      <c r="B127" s="51" t="s">
         <v>326</v>
       </c>
-      <c r="C127" s="51">
+      <c r="C127" s="61">
         <f t="shared" si="1"/>
         <v>43366</v>
       </c>
@@ -41472,13 +41496,13 @@
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E127" s="34" t="s">
+      <c r="E127" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="F127" s="34" t="s">
+      <c r="F127" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="G127" s="71" t="s">
+      <c r="G127" s="81" t="s">
         <v>325</v>
       </c>
       <c r="H127" s="1"/>
@@ -41491,11 +41515,11 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="41" t="s">
+      <c r="A128" s="51"/>
+      <c r="B128" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C128" s="51">
+      <c r="C128" s="61">
         <f t="shared" si="1"/>
         <v>43367</v>
       </c>
@@ -41503,13 +41527,13 @@
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E128" s="79" t="s">
+      <c r="E128" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="F128" s="79" t="s">
+      <c r="F128" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="G128" s="80" t="s">
+      <c r="G128" s="90" t="s">
         <v>329</v>
       </c>
       <c r="H128" s="1"/>
@@ -41522,25 +41546,25 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="53" t="s">
+      <c r="A129" s="51"/>
+      <c r="B129" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="C129" s="54">
+      <c r="C129" s="64">
         <f t="shared" si="1"/>
         <v>43368</v>
       </c>
-      <c r="D129" s="55" t="str">
+      <c r="D129" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E129" s="81" t="s">
+      <c r="E129" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="F129" s="81" t="s">
+      <c r="F129" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="G129" s="82" t="s">
+      <c r="G129" s="92" t="s">
         <v>329</v>
       </c>
       <c r="H129" s="1"/>
@@ -41553,25 +41577,25 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="47" t="s">
+      <c r="A130" s="51"/>
+      <c r="B130" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="C130" s="48">
+      <c r="C130" s="58">
         <f t="shared" si="1"/>
         <v>43369</v>
       </c>
-      <c r="D130" s="49" t="str">
+      <c r="D130" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E130" s="67" t="s">
+      <c r="E130" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="F130" s="67" t="s">
+      <c r="F130" s="77" t="s">
         <v>333</v>
       </c>
-      <c r="G130" s="68" t="s">
+      <c r="G130" s="78" t="s">
         <v>333</v>
       </c>
       <c r="H130" s="1"/>
@@ -41584,11 +41608,11 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="41" t="s">
+      <c r="A131" s="51"/>
+      <c r="B131" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C131" s="51">
+      <c r="C131" s="61">
         <f t="shared" si="1"/>
         <v>43370</v>
       </c>
@@ -41596,13 +41620,13 @@
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E131" s="69" t="s">
+      <c r="E131" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="F131" s="69" t="s">
+      <c r="F131" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="G131" s="70" t="s">
+      <c r="G131" s="80" t="s">
         <v>333</v>
       </c>
       <c r="H131" s="1"/>
@@ -41615,11 +41639,11 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="41" t="s">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C132" s="61">
         <f t="shared" si="1"/>
         <v>43371</v>
       </c>
@@ -41627,13 +41651,13 @@
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E132" s="34" t="s">
+      <c r="E132" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="F132" s="34" t="s">
+      <c r="F132" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="G132" s="71" t="s">
+      <c r="G132" s="81" t="s">
         <v>336</v>
       </c>
       <c r="H132" s="1"/>
@@ -41646,11 +41670,11 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="41"/>
-      <c r="B133" s="41" t="s">
+      <c r="A133" s="51"/>
+      <c r="B133" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="C133" s="51">
+      <c r="C133" s="61">
         <f t="shared" si="1"/>
         <v>43372</v>
       </c>
@@ -41658,13 +41682,13 @@
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E133" s="34" t="s">
+      <c r="E133" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="F133" s="34" t="s">
+      <c r="F133" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="71" t="s">
+      <c r="G133" s="81" t="s">
         <v>338</v>
       </c>
       <c r="H133" s="1"/>
@@ -41677,25 +41701,25 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="53" t="s">
+      <c r="A134" s="51"/>
+      <c r="B134" s="63" t="s">
         <v>339</v>
       </c>
-      <c r="C134" s="54">
+      <c r="C134" s="64">
         <f t="shared" si="1"/>
         <v>43373</v>
       </c>
-      <c r="D134" s="55" t="str">
+      <c r="D134" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E134" s="83" t="s">
+      <c r="E134" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="F134" s="83" t="s">
+      <c r="F134" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="G134" s="84" t="s">
+      <c r="G134" s="94" t="s">
         <v>340</v>
       </c>
       <c r="H134" s="1"/>
@@ -41708,25 +41732,25 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="58" t="s">
+      <c r="A135" s="63"/>
+      <c r="B135" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="C135" s="59">
+      <c r="C135" s="69">
         <f t="shared" si="1"/>
         <v>43374</v>
       </c>
-      <c r="D135" s="60" t="str">
+      <c r="D135" s="70" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E135" s="85" t="s">
+      <c r="E135" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="F135" s="85" t="s">
+      <c r="F135" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="G135" s="86" t="s">
+      <c r="G135" s="96" t="s">
         <v>340</v>
       </c>
       <c r="H135" s="1"/>
@@ -41739,7 +41763,7 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
+      <c r="A136" s="51"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -41756,7 +41780,7 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="31" t="s">
+      <c r="A137" s="41" t="s">
         <v>342</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -41801,7 +41825,7 @@
     </row>
     <row r="139" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="87" t="s">
+      <c r="B139" s="97" t="s">
         <v>343</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -41822,7 +41846,7 @@
     </row>
     <row r="140" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
-      <c r="B140" s="33" t="s">
+      <c r="B140" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -41906,7 +41930,7 @@
     </row>
     <row r="144" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="44" t="s">
         <v>349</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -41948,7 +41972,7 @@
     </row>
     <row r="146" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="69" t="s">
+      <c r="B146" s="79" t="s">
         <v>353</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -41990,7 +42014,7 @@
     </row>
     <row r="148" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
-      <c r="B148" s="79" t="s">
+      <c r="B148" s="89" t="s">
         <v>357</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -42010,7 +42034,7 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
+      <c r="A149" s="51"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -42027,7 +42051,7 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="41"/>
+      <c r="A150" s="51"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -42044,7 +42068,7 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="41"/>
+      <c r="A151" s="51"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -42061,7 +42085,7 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="41"/>
+      <c r="A152" s="51"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -42078,7 +42102,7 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="41"/>
+      <c r="A153" s="51"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -42095,7 +42119,7 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="41"/>
+      <c r="A154" s="51"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -42112,7 +42136,7 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="41"/>
+      <c r="A155" s="51"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -42129,7 +42153,7 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="41"/>
+      <c r="A156" s="51"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -42146,7 +42170,7 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -42163,7 +42187,7 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="41"/>
+      <c r="A158" s="51"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -42180,7 +42204,7 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="41"/>
+      <c r="A159" s="51"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -42197,7 +42221,7 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="41"/>
+      <c r="A160" s="51"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -42214,7 +42238,7 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="41"/>
+      <c r="A161" s="51"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -42231,7 +42255,7 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="41"/>
+      <c r="A162" s="51"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -42248,7 +42272,7 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="41"/>
+      <c r="A163" s="51"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -42265,7 +42289,7 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="41"/>
+      <c r="A164" s="51"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -42282,7 +42306,7 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="41"/>
+      <c r="A165" s="51"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -42299,7 +42323,7 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="41"/>
+      <c r="A166" s="51"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -42316,7 +42340,7 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="41"/>
+      <c r="A167" s="51"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -42333,7 +42357,7 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="41"/>
+      <c r="A168" s="51"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -42350,7 +42374,7 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="41"/>
+      <c r="A169" s="51"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -42367,7 +42391,7 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
+      <c r="A170" s="51"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -42384,7 +42408,7 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="41"/>
+      <c r="A171" s="51"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -42401,7 +42425,7 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
+      <c r="A172" s="51"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -42418,7 +42442,7 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
+      <c r="A173" s="51"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -42435,7 +42459,7 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="41"/>
+      <c r="A174" s="51"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -42452,7 +42476,7 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="41"/>
+      <c r="A175" s="51"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -42469,7 +42493,7 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="41"/>
+      <c r="A176" s="51"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -42486,7 +42510,7 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="41"/>
+      <c r="A177" s="51"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -42503,7 +42527,7 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="41"/>
+      <c r="A178" s="51"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -42520,7 +42544,7 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
+      <c r="A179" s="51"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -42537,7 +42561,7 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="41"/>
+      <c r="A180" s="51"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -42554,7 +42578,7 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="41"/>
+      <c r="A181" s="51"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -42571,7 +42595,7 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="41"/>
+      <c r="A182" s="51"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -42588,7 +42612,7 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="41"/>
+      <c r="A183" s="51"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -42605,7 +42629,7 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="41"/>
+      <c r="A184" s="51"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -42622,7 +42646,7 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="41"/>
+      <c r="A185" s="51"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -42639,7 +42663,7 @@
       <c r="O185" s="1"/>
     </row>
     <row r="186" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="41"/>
+      <c r="A186" s="51"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -42656,7 +42680,7 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="41"/>
+      <c r="A187" s="51"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -42673,7 +42697,7 @@
       <c r="O187" s="1"/>
     </row>
     <row r="188" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="41"/>
+      <c r="A188" s="51"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -42690,7 +42714,7 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="41"/>
+      <c r="A189" s="51"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -42707,7 +42731,7 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="41"/>
+      <c r="A190" s="51"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -42724,7 +42748,7 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
+      <c r="A191" s="51"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -42741,7 +42765,7 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="41"/>
+      <c r="A192" s="51"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -42758,7 +42782,7 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="41"/>
+      <c r="A193" s="51"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -42775,7 +42799,7 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="41"/>
+      <c r="A194" s="51"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -42792,7 +42816,7 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="41"/>
+      <c r="A195" s="51"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -42809,7 +42833,7 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="41"/>
+      <c r="A196" s="51"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -42826,7 +42850,7 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="41"/>
+      <c r="A197" s="51"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -42843,7 +42867,7 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="41"/>
+      <c r="A198" s="51"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -42860,7 +42884,7 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="41"/>
+      <c r="A199" s="51"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -42877,7 +42901,7 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="41"/>
+      <c r="A200" s="51"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -42894,7 +42918,7 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="41"/>
+      <c r="A201" s="51"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -42911,7 +42935,7 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="41"/>
+      <c r="A202" s="51"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -42928,7 +42952,7 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="41"/>
+      <c r="A203" s="51"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -42945,7 +42969,7 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="41"/>
+      <c r="A204" s="51"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -42962,7 +42986,7 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="41"/>
+      <c r="A205" s="51"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -42979,7 +43003,7 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="41"/>
+      <c r="A206" s="51"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -42996,7 +43020,7 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="41"/>
+      <c r="A207" s="51"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -43013,7 +43037,7 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="41"/>
+      <c r="A208" s="51"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -43030,7 +43054,7 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="41"/>
+      <c r="A209" s="51"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -43047,7 +43071,7 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="41"/>
+      <c r="A210" s="51"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -43064,7 +43088,7 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="41"/>
+      <c r="A211" s="51"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -43081,7 +43105,7 @@
       <c r="O211" s="1"/>
     </row>
     <row r="212" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="41"/>
+      <c r="A212" s="51"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -43098,7 +43122,7 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="41"/>
+      <c r="A213" s="51"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -43115,7 +43139,7 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="41"/>
+      <c r="A214" s="51"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -43132,7 +43156,7 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="41"/>
+      <c r="A215" s="51"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -43149,7 +43173,7 @@
       <c r="O215" s="1"/>
     </row>
     <row r="216" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="41"/>
+      <c r="A216" s="51"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -43166,7 +43190,7 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="41"/>
+      <c r="A217" s="51"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -43183,7 +43207,7 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="41"/>
+      <c r="A218" s="51"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -43200,7 +43224,7 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="41"/>
+      <c r="A219" s="51"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -43217,7 +43241,7 @@
       <c r="O219" s="1"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="41"/>
+      <c r="A220" s="51"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -43234,7 +43258,7 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="41"/>
+      <c r="A221" s="51"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -43251,7 +43275,7 @@
       <c r="O221" s="1"/>
     </row>
     <row r="222" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="41"/>
+      <c r="A222" s="51"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -43268,7 +43292,7 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="41"/>
+      <c r="A223" s="51"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -43285,7 +43309,7 @@
       <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="41"/>
+      <c r="A224" s="51"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -43302,7 +43326,7 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="41"/>
+      <c r="A225" s="51"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -43319,7 +43343,7 @@
       <c r="O225" s="1"/>
     </row>
     <row r="226" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="41"/>
+      <c r="A226" s="51"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -43336,7 +43360,7 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="41"/>
+      <c r="A227" s="51"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -43353,7 +43377,7 @@
       <c r="O227" s="1"/>
     </row>
     <row r="228" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="41"/>
+      <c r="A228" s="51"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -43370,7 +43394,7 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="41"/>
+      <c r="A229" s="51"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -43387,7 +43411,7 @@
       <c r="O229" s="1"/>
     </row>
     <row r="230" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="41"/>
+      <c r="A230" s="51"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -43404,7 +43428,7 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="41"/>
+      <c r="A231" s="51"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -43421,7 +43445,7 @@
       <c r="O231" s="1"/>
     </row>
     <row r="232" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="41"/>
+      <c r="A232" s="51"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -43438,7 +43462,7 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="41"/>
+      <c r="A233" s="51"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -43455,7 +43479,7 @@
       <c r="O233" s="1"/>
     </row>
     <row r="234" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="41"/>
+      <c r="A234" s="51"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -43472,7 +43496,7 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="41"/>
+      <c r="A235" s="51"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -43489,7 +43513,7 @@
       <c r="O235" s="1"/>
     </row>
     <row r="236" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="41"/>
+      <c r="A236" s="51"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -43506,7 +43530,7 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="41"/>
+      <c r="A237" s="51"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -43523,7 +43547,7 @@
       <c r="O237" s="1"/>
     </row>
     <row r="238" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
+      <c r="A238" s="51"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -43540,7 +43564,7 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="41"/>
+      <c r="A239" s="51"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -43557,7 +43581,7 @@
       <c r="O239" s="1"/>
     </row>
     <row r="240" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="41"/>
+      <c r="A240" s="51"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -43574,7 +43598,7 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="41"/>
+      <c r="A241" s="51"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -43591,7 +43615,7 @@
       <c r="O241" s="1"/>
     </row>
     <row r="242" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="41"/>
+      <c r="A242" s="51"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -43608,7 +43632,7 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="41"/>
+      <c r="A243" s="51"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -43625,7 +43649,7 @@
       <c r="O243" s="1"/>
     </row>
     <row r="244" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="41"/>
+      <c r="A244" s="51"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -43642,7 +43666,7 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="41"/>
+      <c r="A245" s="51"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -43659,7 +43683,7 @@
       <c r="O245" s="1"/>
     </row>
     <row r="246" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="41"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -43676,7 +43700,7 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="41"/>
+      <c r="A247" s="51"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -43693,7 +43717,7 @@
       <c r="O247" s="1"/>
     </row>
     <row r="248" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="41"/>
+      <c r="A248" s="51"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -43710,7 +43734,7 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="41"/>
+      <c r="A249" s="51"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -43727,7 +43751,7 @@
       <c r="O249" s="1"/>
     </row>
     <row r="250" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="41"/>
+      <c r="A250" s="51"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -43744,7 +43768,7 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="41"/>
+      <c r="A251" s="51"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -43761,7 +43785,7 @@
       <c r="O251" s="1"/>
     </row>
     <row r="252" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="41"/>
+      <c r="A252" s="51"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -43778,7 +43802,7 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="41"/>
+      <c r="A253" s="51"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -43795,7 +43819,7 @@
       <c r="O253" s="1"/>
     </row>
     <row r="254" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="41"/>
+      <c r="A254" s="51"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -43812,7 +43836,7 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="41"/>
+      <c r="A255" s="51"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -43829,7 +43853,7 @@
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="41"/>
+      <c r="A256" s="51"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -43846,7 +43870,7 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="41"/>
+      <c r="A257" s="51"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -43863,7 +43887,7 @@
       <c r="O257" s="1"/>
     </row>
     <row r="258" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="41"/>
+      <c r="A258" s="51"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -43880,7 +43904,7 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="41"/>
+      <c r="A259" s="51"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -43897,7 +43921,7 @@
       <c r="O259" s="1"/>
     </row>
     <row r="260" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="41"/>
+      <c r="A260" s="51"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -43914,7 +43938,7 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="41"/>
+      <c r="A261" s="51"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -43931,7 +43955,7 @@
       <c r="O261" s="1"/>
     </row>
     <row r="262" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="41"/>
+      <c r="A262" s="51"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -43948,7 +43972,7 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="41"/>
+      <c r="A263" s="51"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -43965,7 +43989,7 @@
       <c r="O263" s="1"/>
     </row>
     <row r="264" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="41"/>
+      <c r="A264" s="51"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -43982,7 +44006,7 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="41"/>
+      <c r="A265" s="51"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -43999,7 +44023,7 @@
       <c r="O265" s="1"/>
     </row>
     <row r="266" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="41"/>
+      <c r="A266" s="51"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -44016,7 +44040,7 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="41"/>
+      <c r="A267" s="51"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -44033,7 +44057,7 @@
       <c r="O267" s="1"/>
     </row>
     <row r="268" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="41"/>
+      <c r="A268" s="51"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -44050,7 +44074,7 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="41"/>
+      <c r="A269" s="51"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -44067,7 +44091,7 @@
       <c r="O269" s="1"/>
     </row>
     <row r="270" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="41"/>
+      <c r="A270" s="51"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -44084,7 +44108,7 @@
       <c r="O270" s="1"/>
     </row>
     <row r="271" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="41"/>
+      <c r="A271" s="51"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -44101,7 +44125,7 @@
       <c r="O271" s="1"/>
     </row>
     <row r="272" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="41"/>
+      <c r="A272" s="51"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -44118,7 +44142,7 @@
       <c r="O272" s="1"/>
     </row>
     <row r="273" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="41"/>
+      <c r="A273" s="51"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -44135,7 +44159,7 @@
       <c r="O273" s="1"/>
     </row>
     <row r="274" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="41"/>
+      <c r="A274" s="51"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -44152,7 +44176,7 @@
       <c r="O274" s="1"/>
     </row>
     <row r="275" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="41"/>
+      <c r="A275" s="51"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -44169,7 +44193,7 @@
       <c r="O275" s="1"/>
     </row>
     <row r="276" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="41"/>
+      <c r="A276" s="51"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -44186,7 +44210,7 @@
       <c r="O276" s="1"/>
     </row>
     <row r="277" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="41"/>
+      <c r="A277" s="51"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -44203,7 +44227,7 @@
       <c r="O277" s="1"/>
     </row>
     <row r="278" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="41"/>
+      <c r="A278" s="51"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -44220,7 +44244,7 @@
       <c r="O278" s="1"/>
     </row>
     <row r="279" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="41"/>
+      <c r="A279" s="51"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -44237,7 +44261,7 @@
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="41"/>
+      <c r="A280" s="51"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -44254,7 +44278,7 @@
       <c r="O280" s="1"/>
     </row>
     <row r="281" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="41"/>
+      <c r="A281" s="51"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -44271,7 +44295,7 @@
       <c r="O281" s="1"/>
     </row>
     <row r="282" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="41"/>
+      <c r="A282" s="51"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -44288,7 +44312,7 @@
       <c r="O282" s="1"/>
     </row>
     <row r="283" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="41"/>
+      <c r="A283" s="51"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -44305,7 +44329,7 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="41"/>
+      <c r="A284" s="51"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -44322,7 +44346,7 @@
       <c r="O284" s="1"/>
     </row>
     <row r="285" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="41"/>
+      <c r="A285" s="51"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -44339,7 +44363,7 @@
       <c r="O285" s="1"/>
     </row>
     <row r="286" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="41"/>
+      <c r="A286" s="51"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -44356,7 +44380,7 @@
       <c r="O286" s="1"/>
     </row>
     <row r="287" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="41"/>
+      <c r="A287" s="51"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -44373,7 +44397,7 @@
       <c r="O287" s="1"/>
     </row>
     <row r="288" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="41"/>
+      <c r="A288" s="51"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -44390,7 +44414,7 @@
       <c r="O288" s="1"/>
     </row>
     <row r="289" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="41"/>
+      <c r="A289" s="51"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -44407,7 +44431,7 @@
       <c r="O289" s="1"/>
     </row>
     <row r="290" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="41"/>
+      <c r="A290" s="51"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -44424,7 +44448,7 @@
       <c r="O290" s="1"/>
     </row>
     <row r="291" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="41"/>
+      <c r="A291" s="51"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -44441,7 +44465,7 @@
       <c r="O291" s="1"/>
     </row>
     <row r="292" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="41"/>
+      <c r="A292" s="51"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -44458,7 +44482,7 @@
       <c r="O292" s="1"/>
     </row>
     <row r="293" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="41"/>
+      <c r="A293" s="51"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -44475,7 +44499,7 @@
       <c r="O293" s="1"/>
     </row>
     <row r="294" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="41"/>
+      <c r="A294" s="51"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -44492,7 +44516,7 @@
       <c r="O294" s="1"/>
     </row>
     <row r="295" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="41"/>
+      <c r="A295" s="51"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -44509,7 +44533,7 @@
       <c r="O295" s="1"/>
     </row>
     <row r="296" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="41"/>
+      <c r="A296" s="51"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -44526,7 +44550,7 @@
       <c r="O296" s="1"/>
     </row>
     <row r="297" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="41"/>
+      <c r="A297" s="51"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -44543,7 +44567,7 @@
       <c r="O297" s="1"/>
     </row>
     <row r="298" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="41"/>
+      <c r="A298" s="51"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -44560,7 +44584,7 @@
       <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="41"/>
+      <c r="A299" s="51"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -44577,7 +44601,7 @@
       <c r="O299" s="1"/>
     </row>
     <row r="300" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="41"/>
+      <c r="A300" s="51"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -44594,7 +44618,7 @@
       <c r="O300" s="1"/>
     </row>
     <row r="301" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="41"/>
+      <c r="A301" s="51"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -44611,7 +44635,7 @@
       <c r="O301" s="1"/>
     </row>
     <row r="302" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="41"/>
+      <c r="A302" s="51"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -44628,7 +44652,7 @@
       <c r="O302" s="1"/>
     </row>
     <row r="303" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="41"/>
+      <c r="A303" s="51"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -44645,7 +44669,7 @@
       <c r="O303" s="1"/>
     </row>
     <row r="304" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="41"/>
+      <c r="A304" s="51"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -44662,7 +44686,7 @@
       <c r="O304" s="1"/>
     </row>
     <row r="305" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="41"/>
+      <c r="A305" s="51"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -44679,7 +44703,7 @@
       <c r="O305" s="1"/>
     </row>
     <row r="306" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="41"/>
+      <c r="A306" s="51"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -44696,7 +44720,7 @@
       <c r="O306" s="1"/>
     </row>
     <row r="307" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="41"/>
+      <c r="A307" s="51"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -44713,7 +44737,7 @@
       <c r="O307" s="1"/>
     </row>
     <row r="308" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="41"/>
+      <c r="A308" s="51"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -44730,7 +44754,7 @@
       <c r="O308" s="1"/>
     </row>
     <row r="309" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="41"/>
+      <c r="A309" s="51"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -44747,7 +44771,7 @@
       <c r="O309" s="1"/>
     </row>
     <row r="310" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="41"/>
+      <c r="A310" s="51"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -44764,7 +44788,7 @@
       <c r="O310" s="1"/>
     </row>
     <row r="311" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="41"/>
+      <c r="A311" s="51"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -44781,7 +44805,7 @@
       <c r="O311" s="1"/>
     </row>
     <row r="312" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="41"/>
+      <c r="A312" s="51"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -44798,7 +44822,7 @@
       <c r="O312" s="1"/>
     </row>
     <row r="313" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="41"/>
+      <c r="A313" s="51"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -44815,7 +44839,7 @@
       <c r="O313" s="1"/>
     </row>
     <row r="314" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="41"/>
+      <c r="A314" s="51"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -44832,7 +44856,7 @@
       <c r="O314" s="1"/>
     </row>
     <row r="315" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="41"/>
+      <c r="A315" s="51"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -44849,7 +44873,7 @@
       <c r="O315" s="1"/>
     </row>
     <row r="316" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="41"/>
+      <c r="A316" s="51"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -44866,7 +44890,7 @@
       <c r="O316" s="1"/>
     </row>
     <row r="317" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="41"/>
+      <c r="A317" s="51"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -44883,7 +44907,7 @@
       <c r="O317" s="1"/>
     </row>
     <row r="318" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="41"/>
+      <c r="A318" s="51"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -44900,7 +44924,7 @@
       <c r="O318" s="1"/>
     </row>
     <row r="319" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="41"/>
+      <c r="A319" s="51"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -44917,7 +44941,7 @@
       <c r="O319" s="1"/>
     </row>
     <row r="320" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="41"/>
+      <c r="A320" s="51"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -44934,7 +44958,7 @@
       <c r="O320" s="1"/>
     </row>
     <row r="321" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="41"/>
+      <c r="A321" s="51"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -44951,7 +44975,7 @@
       <c r="O321" s="1"/>
     </row>
     <row r="322" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="41"/>
+      <c r="A322" s="51"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -44968,7 +44992,7 @@
       <c r="O322" s="1"/>
     </row>
     <row r="323" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="41"/>
+      <c r="A323" s="51"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -44985,7 +45009,7 @@
       <c r="O323" s="1"/>
     </row>
     <row r="324" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="41"/>
+      <c r="A324" s="51"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -45002,7 +45026,7 @@
       <c r="O324" s="1"/>
     </row>
     <row r="325" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="41"/>
+      <c r="A325" s="51"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -45019,7 +45043,7 @@
       <c r="O325" s="1"/>
     </row>
     <row r="326" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="41"/>
+      <c r="A326" s="51"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -45036,7 +45060,7 @@
       <c r="O326" s="1"/>
     </row>
     <row r="327" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="41"/>
+      <c r="A327" s="51"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -45053,7 +45077,7 @@
       <c r="O327" s="1"/>
     </row>
     <row r="328" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="41"/>
+      <c r="A328" s="51"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -45070,7 +45094,7 @@
       <c r="O328" s="1"/>
     </row>
     <row r="329" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="41"/>
+      <c r="A329" s="51"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -45087,7 +45111,7 @@
       <c r="O329" s="1"/>
     </row>
     <row r="330" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="41"/>
+      <c r="A330" s="51"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -45104,7 +45128,7 @@
       <c r="O330" s="1"/>
     </row>
     <row r="331" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="41"/>
+      <c r="A331" s="51"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -45121,7 +45145,7 @@
       <c r="O331" s="1"/>
     </row>
     <row r="332" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="41"/>
+      <c r="A332" s="51"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -45138,7 +45162,7 @@
       <c r="O332" s="1"/>
     </row>
     <row r="333" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="41"/>
+      <c r="A333" s="51"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -45155,7 +45179,7 @@
       <c r="O333" s="1"/>
     </row>
     <row r="334" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="41"/>
+      <c r="A334" s="51"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -45172,7 +45196,7 @@
       <c r="O334" s="1"/>
     </row>
     <row r="335" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="41"/>
+      <c r="A335" s="51"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -45189,7 +45213,7 @@
       <c r="O335" s="1"/>
     </row>
     <row r="336" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="41"/>
+      <c r="A336" s="51"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -45206,7 +45230,7 @@
       <c r="O336" s="1"/>
     </row>
     <row r="337" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="41"/>
+      <c r="A337" s="51"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -45223,7 +45247,7 @@
       <c r="O337" s="1"/>
     </row>
     <row r="338" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="41"/>
+      <c r="A338" s="51"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -45240,7 +45264,7 @@
       <c r="O338" s="1"/>
     </row>
     <row r="339" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="41"/>
+      <c r="A339" s="51"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -45257,7 +45281,7 @@
       <c r="O339" s="1"/>
     </row>
     <row r="340" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="41"/>
+      <c r="A340" s="51"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -45274,7 +45298,7 @@
       <c r="O340" s="1"/>
     </row>
     <row r="341" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="41"/>
+      <c r="A341" s="51"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -45291,7 +45315,7 @@
       <c r="O341" s="1"/>
     </row>
     <row r="342" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="41"/>
+      <c r="A342" s="51"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -45308,7 +45332,7 @@
       <c r="O342" s="1"/>
     </row>
     <row r="343" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="41"/>
+      <c r="A343" s="51"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -45325,7 +45349,7 @@
       <c r="O343" s="1"/>
     </row>
     <row r="344" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="41"/>
+      <c r="A344" s="51"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -45342,7 +45366,7 @@
       <c r="O344" s="1"/>
     </row>
     <row r="345" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="41"/>
+      <c r="A345" s="51"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -45359,7 +45383,7 @@
       <c r="O345" s="1"/>
     </row>
     <row r="346" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="41"/>
+      <c r="A346" s="51"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -45376,7 +45400,7 @@
       <c r="O346" s="1"/>
     </row>
     <row r="347" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="41"/>
+      <c r="A347" s="51"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -45393,7 +45417,7 @@
       <c r="O347" s="1"/>
     </row>
     <row r="348" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="41"/>
+      <c r="A348" s="51"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -46109,7 +46133,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="98" t="s">
         <v>358</v>
       </c>
       <c r="F2" s="4"/>
@@ -46129,7 +46153,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="99" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="1"/>
@@ -46143,7 +46167,7 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="49" t="s">
         <v>361</v>
       </c>
       <c r="B4" s="1"/>
@@ -46178,10 +46202,10 @@
       <c r="A6" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="8" t="s">
         <v>108</v>
       </c>
@@ -46205,10 +46229,10 @@
       <c r="A7" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="107"/>
       <c r="D7" s="8" t="s">
         <v>113</v>
       </c>
@@ -46231,10 +46255,10 @@
       <c r="A8" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="108" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="107"/>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
@@ -46266,22 +46290,22 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="55" t="s">
         <v>367</v>
       </c>
       <c r="G10" s="1"/>
@@ -46294,23 +46318,23 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="58">
         <v>43252</v>
       </c>
-      <c r="D11" s="49" t="str">
+      <c r="D11" s="59" t="str">
         <f t="shared" ref="D11:D133" si="0">TEXT(C11,"ddd")</f>
         <v>T6</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="60" t="s">
         <v>133</v>
       </c>
       <c r="G11" s="1"/>
@@ -46323,11 +46347,11 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="61">
         <f t="shared" ref="C12:C133" si="1">IF(OR(TEXT(C11+2, "ddd")="sun",TEXT(C11+2, "ddd")="mon"), C11+3, C11+2)</f>
         <v>43254</v>
       </c>
@@ -46338,7 +46362,7 @@
       <c r="E12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="62" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="1"/>
@@ -46351,22 +46375,22 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="53" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="64">
         <f t="shared" si="1"/>
         <v>43256</v>
       </c>
-      <c r="D13" s="55" t="str">
+      <c r="D13" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="66" t="s">
         <v>135</v>
       </c>
       <c r="G13" s="1"/>
@@ -46379,22 +46403,22 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="58">
         <f t="shared" si="1"/>
         <v>43258</v>
       </c>
-      <c r="D14" s="49" t="str">
+      <c r="D14" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="60" t="s">
         <v>135</v>
       </c>
       <c r="G14" s="1"/>
@@ -46407,11 +46431,11 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="61">
         <f t="shared" si="1"/>
         <v>43260</v>
       </c>
@@ -46422,7 +46446,7 @@
       <c r="E15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="62" t="s">
         <v>137</v>
       </c>
       <c r="G15" s="1"/>
@@ -46435,22 +46459,22 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="64">
         <f t="shared" si="1"/>
         <v>43262</v>
       </c>
-      <c r="D16" s="55" t="str">
+      <c r="D16" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="56" t="s">
+      <c r="F16" s="66" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="1"/>
@@ -46463,22 +46487,22 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="58">
         <f t="shared" si="1"/>
         <v>43264</v>
       </c>
-      <c r="D17" s="49" t="str">
+      <c r="D17" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="60" t="s">
         <v>139</v>
       </c>
       <c r="G17" s="1"/>
@@ -46491,11 +46515,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="61">
         <f t="shared" si="1"/>
         <v>43266</v>
       </c>
@@ -46506,7 +46530,7 @@
       <c r="E18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="62" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="1"/>
@@ -46519,22 +46543,22 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="64">
         <f t="shared" si="1"/>
         <v>43268</v>
       </c>
-      <c r="D19" s="55" t="str">
+      <c r="D19" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="56" t="s">
+      <c r="F19" s="66" t="s">
         <v>141</v>
       </c>
       <c r="G19" s="1"/>
@@ -46547,22 +46571,22 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="47" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="58">
         <f t="shared" si="1"/>
         <v>43270</v>
       </c>
-      <c r="D20" s="49" t="str">
+      <c r="D20" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="84" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="1"/>
@@ -46575,11 +46599,11 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="61">
         <f t="shared" si="1"/>
         <v>43272</v>
       </c>
@@ -46590,7 +46614,7 @@
       <c r="E21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="62" t="s">
         <v>145</v>
       </c>
       <c r="G21" s="1"/>
@@ -46603,22 +46627,22 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="64">
         <f t="shared" si="1"/>
         <v>43274</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="66" t="s">
         <v>145</v>
       </c>
       <c r="G22" s="1"/>
@@ -46631,22 +46655,22 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="58">
         <f t="shared" si="1"/>
         <v>43276</v>
       </c>
-      <c r="D23" s="49" t="str">
+      <c r="D23" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="60" t="s">
         <v>147</v>
       </c>
       <c r="G23" s="1"/>
@@ -46659,11 +46683,11 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="61">
         <f t="shared" si="1"/>
         <v>43278</v>
       </c>
@@ -46674,7 +46698,7 @@
       <c r="E24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="62" t="s">
         <v>147</v>
       </c>
       <c r="G24" s="1"/>
@@ -46687,22 +46711,22 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="53" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="54">
+      <c r="C25" s="64">
         <f t="shared" si="1"/>
         <v>43280</v>
       </c>
-      <c r="D25" s="55" t="str">
+      <c r="D25" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="66" t="s">
         <v>149</v>
       </c>
       <c r="G25" s="1"/>
@@ -46715,22 +46739,22 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="58">
         <f t="shared" si="1"/>
         <v>43282</v>
       </c>
-      <c r="D26" s="49" t="str">
+      <c r="D26" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="60" t="s">
         <v>149</v>
       </c>
       <c r="G26" s="1"/>
@@ -46743,11 +46767,11 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="61">
         <f t="shared" si="1"/>
         <v>43284</v>
       </c>
@@ -46758,7 +46782,7 @@
       <c r="E27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="62" t="s">
         <v>151</v>
       </c>
       <c r="G27" s="1"/>
@@ -46771,22 +46795,22 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="51"/>
+      <c r="B28" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="64">
         <f t="shared" si="1"/>
         <v>43286</v>
       </c>
-      <c r="D28" s="55" t="str">
+      <c r="D28" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="66" t="s">
         <v>151</v>
       </c>
       <c r="G28" s="1"/>
@@ -46799,22 +46823,22 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="47" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="58">
         <f t="shared" si="1"/>
         <v>43288</v>
       </c>
-      <c r="D29" s="49" t="str">
+      <c r="D29" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="60" t="s">
         <v>153</v>
       </c>
       <c r="G29" s="1"/>
@@ -46827,11 +46851,11 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="61">
         <f t="shared" si="1"/>
         <v>43290</v>
       </c>
@@ -46839,10 +46863,10 @@
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="81" t="s">
         <v>155</v>
       </c>
       <c r="G30" s="1"/>
@@ -46855,22 +46879,22 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="64">
         <f t="shared" si="1"/>
         <v>43292</v>
       </c>
-      <c r="D31" s="55" t="str">
+      <c r="D31" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="66" t="s">
         <v>157</v>
       </c>
       <c r="G31" s="1"/>
@@ -46883,22 +46907,22 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="47" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="58">
         <f t="shared" si="1"/>
         <v>43294</v>
       </c>
-      <c r="D32" s="49" t="str">
+      <c r="D32" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="50" t="s">
+      <c r="F32" s="60" t="s">
         <v>157</v>
       </c>
       <c r="G32" s="1"/>
@@ -46911,11 +46935,11 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="61">
         <f t="shared" si="1"/>
         <v>43296</v>
       </c>
@@ -46926,7 +46950,7 @@
       <c r="E33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="62" t="s">
         <v>159</v>
       </c>
       <c r="G33" s="1"/>
@@ -46939,22 +46963,22 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="53" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="54">
+      <c r="C34" s="64">
         <f t="shared" si="1"/>
         <v>43298</v>
       </c>
-      <c r="D34" s="55" t="str">
+      <c r="D34" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="66" t="s">
         <v>159</v>
       </c>
       <c r="G34" s="1"/>
@@ -46967,22 +46991,22 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="47" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="58">
         <f t="shared" si="1"/>
         <v>43300</v>
       </c>
-      <c r="D35" s="49" t="str">
+      <c r="D35" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="60" t="s">
         <v>162</v>
       </c>
       <c r="G35" s="1"/>
@@ -46995,11 +47019,11 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="61">
         <f t="shared" si="1"/>
         <v>43302</v>
       </c>
@@ -47010,7 +47034,7 @@
       <c r="E36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="62" t="s">
         <v>162</v>
       </c>
       <c r="G36" s="1"/>
@@ -47023,22 +47047,22 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="64">
         <f t="shared" si="1"/>
         <v>43304</v>
       </c>
-      <c r="D37" s="55" t="str">
+      <c r="D37" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="66" t="s">
         <v>166</v>
       </c>
       <c r="G37" s="1"/>
@@ -47051,22 +47075,22 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="47" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="58">
         <f t="shared" si="1"/>
         <v>43306</v>
       </c>
-      <c r="D38" s="49" t="str">
+      <c r="D38" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="60" t="s">
         <v>166</v>
       </c>
       <c r="G38" s="1"/>
@@ -47079,11 +47103,11 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="61">
         <f t="shared" si="1"/>
         <v>43308</v>
       </c>
@@ -47094,7 +47118,7 @@
       <c r="E39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="62" t="s">
         <v>170</v>
       </c>
       <c r="G39" s="1"/>
@@ -47107,22 +47131,22 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="53" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="64">
         <f t="shared" si="1"/>
         <v>43310</v>
       </c>
-      <c r="D40" s="55" t="str">
+      <c r="D40" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F40" s="72" t="s">
+      <c r="F40" s="82" t="s">
         <v>173</v>
       </c>
       <c r="G40" s="1"/>
@@ -47135,22 +47159,22 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="47" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="58">
         <f t="shared" si="1"/>
         <v>43312</v>
       </c>
-      <c r="D41" s="49" t="str">
+      <c r="D41" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="60" t="s">
         <v>176</v>
       </c>
       <c r="G41" s="1"/>
@@ -47163,11 +47187,11 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="61">
         <f t="shared" si="1"/>
         <v>43314</v>
       </c>
@@ -47178,7 +47202,7 @@
       <c r="E42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="F42" s="62" t="s">
         <v>176</v>
       </c>
       <c r="G42" s="1"/>
@@ -47191,22 +47215,22 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="53" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="54">
+      <c r="C43" s="64">
         <f t="shared" si="1"/>
         <v>43316</v>
       </c>
-      <c r="D43" s="55" t="str">
+      <c r="D43" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="66" t="s">
         <v>180</v>
       </c>
       <c r="G43" s="1"/>
@@ -47219,22 +47243,22 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="47" t="s">
+      <c r="A44" s="51"/>
+      <c r="B44" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="58">
         <f t="shared" si="1"/>
         <v>43318</v>
       </c>
-      <c r="D44" s="49" t="str">
+      <c r="D44" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="60" t="s">
         <v>180</v>
       </c>
       <c r="G44" s="1"/>
@@ -47247,11 +47271,11 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41" t="s">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="61">
         <f t="shared" si="1"/>
         <v>43320</v>
       </c>
@@ -47262,7 +47286,7 @@
       <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F45" s="62" t="s">
         <v>184</v>
       </c>
       <c r="G45" s="1"/>
@@ -47275,22 +47299,22 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="54">
+      <c r="C46" s="64">
         <f t="shared" si="1"/>
         <v>43322</v>
       </c>
-      <c r="D46" s="55" t="str">
+      <c r="D46" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="56" t="s">
+      <c r="F46" s="66" t="s">
         <v>184</v>
       </c>
       <c r="G46" s="1"/>
@@ -47303,22 +47327,22 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="58">
         <f t="shared" si="1"/>
         <v>43324</v>
       </c>
-      <c r="D47" s="49" t="str">
+      <c r="D47" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F47" s="60" t="s">
         <v>188</v>
       </c>
       <c r="G47" s="1"/>
@@ -47331,11 +47355,11 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="61">
         <f t="shared" si="1"/>
         <v>43326</v>
       </c>
@@ -47346,7 +47370,7 @@
       <c r="E48" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="62" t="s">
         <v>188</v>
       </c>
       <c r="G48" s="1"/>
@@ -47359,22 +47383,22 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="54">
+      <c r="C49" s="64">
         <f t="shared" si="1"/>
         <v>43328</v>
       </c>
-      <c r="D49" s="55" t="str">
+      <c r="D49" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="66" t="s">
         <v>192</v>
       </c>
       <c r="G49" s="1"/>
@@ -47387,22 +47411,22 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="47" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="58">
         <f t="shared" si="1"/>
         <v>43330</v>
       </c>
-      <c r="D50" s="49" t="str">
+      <c r="D50" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="74" t="s">
+      <c r="F50" s="84" t="s">
         <v>195</v>
       </c>
       <c r="G50" s="1"/>
@@ -47415,11 +47439,11 @@
       <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="61">
         <f t="shared" si="1"/>
         <v>43332</v>
       </c>
@@ -47430,7 +47454,7 @@
       <c r="E51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="62" t="s">
         <v>198</v>
       </c>
       <c r="G51" s="1"/>
@@ -47443,22 +47467,22 @@
       <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="53" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="64">
         <f t="shared" si="1"/>
         <v>43334</v>
       </c>
-      <c r="D52" s="55" t="str">
+      <c r="D52" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="F52" s="56" t="s">
+      <c r="F52" s="66" t="s">
         <v>198</v>
       </c>
       <c r="G52" s="1"/>
@@ -47471,22 +47495,22 @@
       <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="47" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="58">
         <f t="shared" si="1"/>
         <v>43336</v>
       </c>
-      <c r="D53" s="49" t="str">
+      <c r="D53" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="60" t="s">
         <v>202</v>
       </c>
       <c r="G53" s="1"/>
@@ -47499,11 +47523,11 @@
       <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="61">
         <f t="shared" si="1"/>
         <v>43338</v>
       </c>
@@ -47514,7 +47538,7 @@
       <c r="E54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="62" t="s">
         <v>202</v>
       </c>
       <c r="G54" s="1"/>
@@ -47527,22 +47551,22 @@
       <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="64">
         <f t="shared" si="1"/>
         <v>43340</v>
       </c>
-      <c r="D55" s="55" t="str">
+      <c r="D55" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="F55" s="56" t="s">
+      <c r="F55" s="66" t="s">
         <v>206</v>
       </c>
       <c r="G55" s="1"/>
@@ -47555,22 +47579,22 @@
       <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="47" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="58">
         <f t="shared" si="1"/>
         <v>43342</v>
       </c>
-      <c r="D56" s="49" t="str">
+      <c r="D56" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="60" t="s">
         <v>206</v>
       </c>
       <c r="G56" s="1"/>
@@ -47583,11 +47607,11 @@
       <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41" t="s">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="61">
         <f t="shared" si="1"/>
         <v>43344</v>
       </c>
@@ -47598,7 +47622,7 @@
       <c r="E57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F57" s="52" t="s">
+      <c r="F57" s="62" t="s">
         <v>210</v>
       </c>
       <c r="G57" s="1"/>
@@ -47611,22 +47635,22 @@
       <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="53" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C58" s="54">
+      <c r="C58" s="64">
         <f t="shared" si="1"/>
         <v>43346</v>
       </c>
-      <c r="D58" s="55" t="str">
+      <c r="D58" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F58" s="66" t="s">
         <v>210</v>
       </c>
       <c r="G58" s="1"/>
@@ -47639,22 +47663,22 @@
       <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="47" t="s">
+      <c r="A59" s="51"/>
+      <c r="B59" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="58">
         <f t="shared" si="1"/>
         <v>43348</v>
       </c>
-      <c r="D59" s="49" t="str">
+      <c r="D59" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="F59" s="50" t="s">
+      <c r="F59" s="60" t="s">
         <v>214</v>
       </c>
       <c r="G59" s="1"/>
@@ -47667,11 +47691,11 @@
       <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="61">
         <f t="shared" si="1"/>
         <v>43350</v>
       </c>
@@ -47679,10 +47703,10 @@
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="81" t="s">
         <v>217</v>
       </c>
       <c r="G60" s="1"/>
@@ -47695,22 +47719,22 @@
       <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="51"/>
+      <c r="B61" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61" s="64">
         <f t="shared" si="1"/>
         <v>43352</v>
       </c>
-      <c r="D61" s="55" t="str">
+      <c r="D61" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E61" s="90" t="s">
+      <c r="E61" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="F61" s="91" t="s">
+      <c r="F61" s="101" t="s">
         <v>219</v>
       </c>
       <c r="G61" s="1"/>
@@ -47723,24 +47747,24 @@
       <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="48">
+      <c r="C62" s="58">
         <f t="shared" si="1"/>
         <v>43354</v>
       </c>
-      <c r="D62" s="49" t="str">
+      <c r="D62" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="50" t="s">
+      <c r="F62" s="60" t="s">
         <v>28</v>
       </c>
       <c r="G62" s="1"/>
@@ -47753,11 +47777,11 @@
       <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="73"/>
+      <c r="B63" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="61">
         <f t="shared" si="1"/>
         <v>43356</v>
       </c>
@@ -47768,7 +47792,7 @@
       <c r="E63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="52" t="s">
+      <c r="F63" s="62" t="s">
         <v>28</v>
       </c>
       <c r="G63" s="1"/>
@@ -47781,22 +47805,22 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="53" t="s">
+      <c r="A64" s="73"/>
+      <c r="B64" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="C64" s="54">
+      <c r="C64" s="64">
         <f t="shared" si="1"/>
         <v>43358</v>
       </c>
-      <c r="D64" s="55" t="str">
+      <c r="D64" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="56" t="s">
+      <c r="F64" s="66" t="s">
         <v>32</v>
       </c>
       <c r="G64" s="1"/>
@@ -47809,22 +47833,22 @@
       <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="47" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="58">
         <f t="shared" si="1"/>
         <v>43360</v>
       </c>
-      <c r="D65" s="49" t="str">
+      <c r="D65" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="60" t="s">
         <v>32</v>
       </c>
       <c r="G65" s="1"/>
@@ -47837,11 +47861,11 @@
       <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="73"/>
+      <c r="B66" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="61">
         <f t="shared" si="1"/>
         <v>43362</v>
       </c>
@@ -47852,7 +47876,7 @@
       <c r="E66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="F66" s="62" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="1"/>
@@ -47865,22 +47889,22 @@
       <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="53" t="s">
+      <c r="A67" s="74"/>
+      <c r="B67" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="C67" s="54">
+      <c r="C67" s="64">
         <f t="shared" si="1"/>
         <v>43364</v>
       </c>
-      <c r="D67" s="55" t="str">
+      <c r="D67" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E67" s="55" t="s">
+      <c r="E67" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="56" t="s">
+      <c r="F67" s="66" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="1"/>
@@ -47893,22 +47917,22 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="41"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="51"/>
+      <c r="B68" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="48">
+      <c r="C68" s="58">
         <f t="shared" si="1"/>
         <v>43366</v>
       </c>
-      <c r="D68" s="49" t="str">
+      <c r="D68" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="60" t="s">
         <v>40</v>
       </c>
       <c r="G68" s="1"/>
@@ -47921,11 +47945,11 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41" t="s">
+      <c r="A69" s="51"/>
+      <c r="B69" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="61">
         <f t="shared" si="1"/>
         <v>43368</v>
       </c>
@@ -47936,7 +47960,7 @@
       <c r="E69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F69" s="52" t="s">
+      <c r="F69" s="62" t="s">
         <v>40</v>
       </c>
       <c r="G69" s="1"/>
@@ -47949,22 +47973,22 @@
       <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="53" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="C70" s="54">
+      <c r="C70" s="64">
         <f t="shared" si="1"/>
         <v>43370</v>
       </c>
-      <c r="D70" s="55" t="str">
+      <c r="D70" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="56" t="s">
+      <c r="F70" s="66" t="s">
         <v>46</v>
       </c>
       <c r="G70" s="1"/>
@@ -47977,22 +48001,22 @@
       <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="41"/>
-      <c r="B71" s="47" t="s">
+      <c r="A71" s="51"/>
+      <c r="B71" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="C71" s="48">
+      <c r="C71" s="58">
         <f t="shared" si="1"/>
         <v>43372</v>
       </c>
-      <c r="D71" s="49" t="str">
+      <c r="D71" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E71" s="73" t="s">
+      <c r="E71" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="F71" s="74" t="s">
+      <c r="F71" s="84" t="s">
         <v>231</v>
       </c>
       <c r="G71" s="1"/>
@@ -48005,11 +48029,11 @@
       <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="61">
         <f t="shared" si="1"/>
         <v>43374</v>
       </c>
@@ -48020,7 +48044,7 @@
       <c r="E72" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="52" t="s">
+      <c r="F72" s="62" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1"/>
@@ -48033,22 +48057,22 @@
       <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="41"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="51"/>
+      <c r="B73" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C73" s="54">
+      <c r="C73" s="64">
         <f t="shared" si="1"/>
         <v>43376</v>
       </c>
-      <c r="D73" s="55" t="str">
+      <c r="D73" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E73" s="55" t="s">
+      <c r="E73" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="F73" s="56" t="s">
+      <c r="F73" s="66" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="1"/>
@@ -48061,22 +48085,22 @@
       <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="41"/>
-      <c r="B74" s="47" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="58">
         <f t="shared" si="1"/>
         <v>43378</v>
       </c>
-      <c r="D74" s="49" t="str">
+      <c r="D74" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="F74" s="60" t="s">
         <v>53</v>
       </c>
       <c r="G74" s="1"/>
@@ -48089,11 +48113,11 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="51"/>
+      <c r="B75" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C75" s="51">
+      <c r="C75" s="61">
         <f t="shared" si="1"/>
         <v>43380</v>
       </c>
@@ -48104,7 +48128,7 @@
       <c r="E75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F75" s="52" t="s">
+      <c r="F75" s="62" t="s">
         <v>53</v>
       </c>
       <c r="G75" s="1"/>
@@ -48117,22 +48141,22 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="41"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="51"/>
+      <c r="B76" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="64">
         <f t="shared" si="1"/>
         <v>43382</v>
       </c>
-      <c r="D76" s="55" t="str">
+      <c r="D76" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="66" t="s">
         <v>57</v>
       </c>
       <c r="G76" s="1"/>
@@ -48145,22 +48169,22 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="51"/>
+      <c r="B77" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="58">
         <f t="shared" si="1"/>
         <v>43384</v>
       </c>
-      <c r="D77" s="49" t="str">
+      <c r="D77" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E77" s="49" t="s">
+      <c r="E77" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F77" s="50" t="s">
+      <c r="F77" s="60" t="s">
         <v>57</v>
       </c>
       <c r="G77" s="1"/>
@@ -48173,11 +48197,11 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41" t="s">
+      <c r="A78" s="51"/>
+      <c r="B78" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="61">
         <f t="shared" si="1"/>
         <v>43386</v>
       </c>
@@ -48188,7 +48212,7 @@
       <c r="E78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F78" s="52" t="s">
+      <c r="F78" s="62" t="s">
         <v>61</v>
       </c>
       <c r="G78" s="1"/>
@@ -48201,22 +48225,22 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="53" t="s">
+      <c r="A79" s="51"/>
+      <c r="B79" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="54">
+      <c r="C79" s="64">
         <f t="shared" si="1"/>
         <v>43388</v>
       </c>
-      <c r="D79" s="55" t="str">
+      <c r="D79" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E79" s="55" t="s">
+      <c r="E79" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="66" t="s">
         <v>61</v>
       </c>
       <c r="G79" s="1"/>
@@ -48229,22 +48253,22 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="47" t="s">
+      <c r="A80" s="51"/>
+      <c r="B80" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="58">
         <f t="shared" si="1"/>
         <v>43390</v>
       </c>
-      <c r="D80" s="49" t="str">
+      <c r="D80" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="60" t="s">
         <v>65</v>
       </c>
       <c r="G80" s="1"/>
@@ -48257,11 +48281,11 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
-      <c r="B81" s="41" t="s">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="51">
+      <c r="C81" s="61">
         <f t="shared" si="1"/>
         <v>43392</v>
       </c>
@@ -48269,10 +48293,10 @@
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="81" t="s">
         <v>243</v>
       </c>
       <c r="G81" s="1"/>
@@ -48285,22 +48309,22 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="53" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="54">
+      <c r="C82" s="64">
         <f t="shared" si="1"/>
         <v>43394</v>
       </c>
-      <c r="D82" s="55" t="str">
+      <c r="D82" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E82" s="90" t="s">
+      <c r="E82" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="F82" s="91" t="s">
+      <c r="F82" s="101" t="s">
         <v>75</v>
       </c>
       <c r="G82" s="1"/>
@@ -48313,24 +48337,24 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="48">
+      <c r="C83" s="58">
         <f t="shared" si="1"/>
         <v>43396</v>
       </c>
-      <c r="D83" s="49" t="str">
+      <c r="D83" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E83" s="49" t="s">
+      <c r="E83" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="F83" s="60" t="s">
         <v>247</v>
       </c>
       <c r="G83" s="1"/>
@@ -48343,11 +48367,11 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="41" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="61">
         <f t="shared" si="1"/>
         <v>43398</v>
       </c>
@@ -48358,7 +48382,7 @@
       <c r="E84" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="F84" s="62" t="s">
         <v>247</v>
       </c>
       <c r="G84" s="1"/>
@@ -48371,22 +48395,22 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
-      <c r="B85" s="53" t="s">
+      <c r="A85" s="73"/>
+      <c r="B85" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="54">
+      <c r="C85" s="64">
         <f t="shared" si="1"/>
         <v>43400</v>
       </c>
-      <c r="D85" s="55" t="str">
+      <c r="D85" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E85" s="55" t="s">
+      <c r="E85" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="F85" s="56" t="s">
+      <c r="F85" s="66" t="s">
         <v>251</v>
       </c>
       <c r="G85" s="1"/>
@@ -48399,22 +48423,22 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
-      <c r="B86" s="47" t="s">
+      <c r="A86" s="73"/>
+      <c r="B86" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="48">
+      <c r="C86" s="58">
         <f t="shared" si="1"/>
         <v>43402</v>
       </c>
-      <c r="D86" s="49" t="str">
+      <c r="D86" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="F86" s="50" t="s">
+      <c r="F86" s="60" t="s">
         <v>251</v>
       </c>
       <c r="G86" s="1"/>
@@ -48427,11 +48451,11 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
-      <c r="B87" s="41" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="51">
+      <c r="C87" s="61">
         <f t="shared" si="1"/>
         <v>43404</v>
       </c>
@@ -48442,7 +48466,7 @@
       <c r="E87" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F87" s="52" t="s">
+      <c r="F87" s="62" t="s">
         <v>254</v>
       </c>
       <c r="G87" s="1"/>
@@ -48455,22 +48479,22 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="53" t="s">
+      <c r="A88" s="74"/>
+      <c r="B88" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="64">
         <f t="shared" si="1"/>
         <v>43406</v>
       </c>
-      <c r="D88" s="55" t="str">
+      <c r="D88" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E88" s="55" t="s">
+      <c r="E88" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="66" t="s">
         <v>254</v>
       </c>
       <c r="G88" s="1"/>
@@ -48483,22 +48507,22 @@
       <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
-      <c r="B89" s="47" t="s">
+      <c r="A89" s="51"/>
+      <c r="B89" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="C89" s="48">
+      <c r="C89" s="58">
         <f t="shared" si="1"/>
         <v>43408</v>
       </c>
-      <c r="D89" s="49" t="str">
+      <c r="D89" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="60" t="s">
         <v>257</v>
       </c>
       <c r="G89" s="1"/>
@@ -48511,11 +48535,11 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41" t="s">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="51">
+      <c r="C90" s="61">
         <f t="shared" si="1"/>
         <v>43410</v>
       </c>
@@ -48526,7 +48550,7 @@
       <c r="E90" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F90" s="52" t="s">
+      <c r="F90" s="62" t="s">
         <v>257</v>
       </c>
       <c r="G90" s="1"/>
@@ -48539,22 +48563,22 @@
       <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="53" t="s">
+      <c r="A91" s="51"/>
+      <c r="B91" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="C91" s="54">
+      <c r="C91" s="64">
         <f t="shared" si="1"/>
         <v>43412</v>
       </c>
-      <c r="D91" s="55" t="str">
+      <c r="D91" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E91" s="55" t="s">
+      <c r="E91" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="F91" s="56" t="s">
+      <c r="F91" s="66" t="s">
         <v>260</v>
       </c>
       <c r="G91" s="1"/>
@@ -48567,22 +48591,22 @@
       <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="47" t="s">
+      <c r="A92" s="51"/>
+      <c r="B92" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="C92" s="48">
+      <c r="C92" s="58">
         <f t="shared" si="1"/>
         <v>43414</v>
       </c>
-      <c r="D92" s="49" t="str">
+      <c r="D92" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E92" s="73" t="s">
+      <c r="E92" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="F92" s="74" t="s">
+      <c r="F92" s="84" t="s">
         <v>263</v>
       </c>
       <c r="G92" s="1"/>
@@ -48595,11 +48619,11 @@
       <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
-      <c r="B93" s="41" t="s">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="61">
         <f t="shared" si="1"/>
         <v>43416</v>
       </c>
@@ -48610,7 +48634,7 @@
       <c r="E93" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="62" t="s">
         <v>265</v>
       </c>
       <c r="G93" s="1"/>
@@ -48623,22 +48647,22 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
-      <c r="B94" s="53" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="C94" s="54">
+      <c r="C94" s="64">
         <f t="shared" si="1"/>
         <v>43418</v>
       </c>
-      <c r="D94" s="55" t="str">
+      <c r="D94" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E94" s="55" t="s">
+      <c r="E94" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="66" t="s">
         <v>265</v>
       </c>
       <c r="G94" s="1"/>
@@ -48651,22 +48675,22 @@
       <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C95" s="58">
         <f t="shared" si="1"/>
         <v>43420</v>
       </c>
-      <c r="D95" s="49" t="str">
+      <c r="D95" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="F95" s="50" t="s">
+      <c r="F95" s="60" t="s">
         <v>268</v>
       </c>
       <c r="G95" s="1"/>
@@ -48679,11 +48703,11 @@
       <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
-      <c r="B96" s="41" t="s">
+      <c r="A96" s="51"/>
+      <c r="B96" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="51">
+      <c r="C96" s="61">
         <f t="shared" si="1"/>
         <v>43422</v>
       </c>
@@ -48694,7 +48718,7 @@
       <c r="E96" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F96" s="52" t="s">
+      <c r="F96" s="62" t="s">
         <v>268</v>
       </c>
       <c r="G96" s="1"/>
@@ -48707,22 +48731,22 @@
       <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="51"/>
+      <c r="B97" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C97" s="54">
+      <c r="C97" s="64">
         <f t="shared" si="1"/>
         <v>43424</v>
       </c>
-      <c r="D97" s="55" t="str">
+      <c r="D97" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E97" s="55" t="s">
+      <c r="E97" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="F97" s="56" t="s">
+      <c r="F97" s="66" t="s">
         <v>271</v>
       </c>
       <c r="G97" s="1"/>
@@ -48735,22 +48759,22 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
-      <c r="B98" s="47" t="s">
+      <c r="A98" s="51"/>
+      <c r="B98" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="58">
         <f t="shared" si="1"/>
         <v>43426</v>
       </c>
-      <c r="D98" s="49" t="str">
+      <c r="D98" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="F98" s="50" t="s">
+      <c r="F98" s="60" t="s">
         <v>271</v>
       </c>
       <c r="G98" s="1"/>
@@ -48763,11 +48787,11 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
-      <c r="B99" s="41" t="s">
+      <c r="A99" s="51"/>
+      <c r="B99" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="51">
+      <c r="C99" s="61">
         <f t="shared" si="1"/>
         <v>43428</v>
       </c>
@@ -48778,7 +48802,7 @@
       <c r="E99" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F99" s="52" t="s">
+      <c r="F99" s="62" t="s">
         <v>274</v>
       </c>
       <c r="G99" s="1"/>
@@ -48791,22 +48815,22 @@
       <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
-      <c r="B100" s="53" t="s">
+      <c r="A100" s="51"/>
+      <c r="B100" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="C100" s="54">
+      <c r="C100" s="64">
         <f t="shared" si="1"/>
         <v>43430</v>
       </c>
-      <c r="D100" s="55" t="str">
+      <c r="D100" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E100" s="55" t="s">
+      <c r="E100" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="F100" s="56" t="s">
+      <c r="F100" s="66" t="s">
         <v>274</v>
       </c>
       <c r="G100" s="1"/>
@@ -48819,22 +48843,22 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
-      <c r="B101" s="47" t="s">
+      <c r="A101" s="51"/>
+      <c r="B101" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C101" s="48">
+      <c r="C101" s="58">
         <f t="shared" si="1"/>
         <v>43432</v>
       </c>
-      <c r="D101" s="49" t="str">
+      <c r="D101" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E101" s="49" t="s">
+      <c r="E101" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="F101" s="50" t="s">
+      <c r="F101" s="60" t="s">
         <v>277</v>
       </c>
       <c r="G101" s="1"/>
@@ -48847,11 +48871,11 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="41" t="s">
+      <c r="A102" s="51"/>
+      <c r="B102" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="C102" s="51">
+      <c r="C102" s="61">
         <f t="shared" si="1"/>
         <v>43434</v>
       </c>
@@ -48859,10 +48883,10 @@
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E102" s="34" t="s">
+      <c r="E102" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F102" s="71" t="s">
+      <c r="F102" s="81" t="s">
         <v>280</v>
       </c>
       <c r="G102" s="1"/>
@@ -48875,22 +48899,22 @@
       <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41"/>
-      <c r="B103" s="53" t="s">
+      <c r="A103" s="51"/>
+      <c r="B103" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="54">
+      <c r="C103" s="64">
         <f t="shared" si="1"/>
         <v>43436</v>
       </c>
-      <c r="D103" s="55" t="str">
+      <c r="D103" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E103" s="92" t="s">
+      <c r="E103" s="102" t="s">
         <v>282</v>
       </c>
-      <c r="F103" s="93" t="s">
+      <c r="F103" s="103" t="s">
         <v>282</v>
       </c>
       <c r="G103" s="1"/>
@@ -48903,22 +48927,22 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41"/>
-      <c r="B104" s="47" t="s">
+      <c r="A104" s="51"/>
+      <c r="B104" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="C104" s="48">
+      <c r="C104" s="58">
         <f t="shared" si="1"/>
         <v>43438</v>
       </c>
-      <c r="D104" s="49" t="str">
+      <c r="D104" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E104" s="49" t="s">
+      <c r="E104" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="60" t="s">
         <v>284</v>
       </c>
       <c r="G104" s="1"/>
@@ -48931,11 +48955,11 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41"/>
-      <c r="B105" s="41" t="s">
+      <c r="A105" s="51"/>
+      <c r="B105" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C105" s="51">
+      <c r="C105" s="61">
         <f t="shared" si="1"/>
         <v>43440</v>
       </c>
@@ -48946,7 +48970,7 @@
       <c r="E105" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="52" t="s">
+      <c r="F105" s="62" t="s">
         <v>284</v>
       </c>
       <c r="G105" s="1"/>
@@ -48959,22 +48983,22 @@
       <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="41"/>
-      <c r="B106" s="53" t="s">
+      <c r="A106" s="51"/>
+      <c r="B106" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="C106" s="54">
+      <c r="C106" s="64">
         <f t="shared" si="1"/>
         <v>43442</v>
       </c>
-      <c r="D106" s="55" t="str">
+      <c r="D106" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E106" s="55" t="s">
+      <c r="E106" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="F106" s="56" t="s">
+      <c r="F106" s="66" t="s">
         <v>287</v>
       </c>
       <c r="G106" s="1"/>
@@ -48987,22 +49011,22 @@
       <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="47" t="s">
+      <c r="A107" s="51"/>
+      <c r="B107" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C107" s="48">
+      <c r="C107" s="58">
         <f t="shared" si="1"/>
         <v>43444</v>
       </c>
-      <c r="D107" s="49" t="str">
+      <c r="D107" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E107" s="49" t="s">
+      <c r="E107" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="F107" s="50" t="s">
+      <c r="F107" s="60" t="s">
         <v>287</v>
       </c>
       <c r="G107" s="1"/>
@@ -49015,11 +49039,11 @@
       <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41"/>
-      <c r="B108" s="41" t="s">
+      <c r="A108" s="51"/>
+      <c r="B108" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="C108" s="51">
+      <c r="C108" s="61">
         <f t="shared" si="1"/>
         <v>43446</v>
       </c>
@@ -49027,10 +49051,10 @@
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E108" s="69" t="s">
+      <c r="E108" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="F108" s="70" t="s">
+      <c r="F108" s="80" t="s">
         <v>290</v>
       </c>
       <c r="G108" s="1"/>
@@ -49043,22 +49067,22 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="51"/>
+      <c r="B109" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="C109" s="54">
+      <c r="C109" s="64">
         <f t="shared" si="1"/>
         <v>43448</v>
       </c>
-      <c r="D109" s="55" t="str">
+      <c r="D109" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E109" s="75" t="s">
+      <c r="E109" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="F109" s="76" t="s">
+      <c r="F109" s="86" t="s">
         <v>290</v>
       </c>
       <c r="G109" s="1"/>
@@ -49071,22 +49095,22 @@
       <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41"/>
-      <c r="B110" s="47" t="s">
+      <c r="A110" s="51"/>
+      <c r="B110" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="C110" s="48">
+      <c r="C110" s="58">
         <f t="shared" si="1"/>
         <v>43450</v>
       </c>
-      <c r="D110" s="49" t="str">
+      <c r="D110" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E110" s="65" t="s">
+      <c r="E110" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="F110" s="94" t="s">
+      <c r="F110" s="104" t="s">
         <v>293</v>
       </c>
       <c r="G110" s="1"/>
@@ -49099,11 +49123,11 @@
       <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41"/>
-      <c r="B111" s="41" t="s">
+      <c r="A111" s="51"/>
+      <c r="B111" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C111" s="51">
+      <c r="C111" s="61">
         <f t="shared" si="1"/>
         <v>43452</v>
       </c>
@@ -49111,10 +49135,10 @@
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="F111" s="71" t="s">
+      <c r="F111" s="81" t="s">
         <v>296</v>
       </c>
       <c r="G111" s="1"/>
@@ -49127,22 +49151,22 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
-      <c r="B112" s="53" t="s">
+      <c r="A112" s="51"/>
+      <c r="B112" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="C112" s="54">
+      <c r="C112" s="64">
         <f t="shared" si="1"/>
         <v>43454</v>
       </c>
-      <c r="D112" s="55" t="str">
+      <c r="D112" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E112" s="57" t="s">
+      <c r="E112" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="F112" s="72" t="s">
+      <c r="F112" s="82" t="s">
         <v>299</v>
       </c>
       <c r="G112" s="1"/>
@@ -49155,22 +49179,22 @@
       <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="41"/>
-      <c r="B113" s="47" t="s">
+      <c r="A113" s="51"/>
+      <c r="B113" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C113" s="48">
+      <c r="C113" s="58">
         <f t="shared" si="1"/>
         <v>43456</v>
       </c>
-      <c r="D113" s="49" t="str">
+      <c r="D113" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E113" s="73" t="s">
+      <c r="E113" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="F113" s="74" t="s">
+      <c r="F113" s="84" t="s">
         <v>302</v>
       </c>
       <c r="G113" s="1"/>
@@ -49183,11 +49207,11 @@
       <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
-      <c r="B114" s="41" t="s">
+      <c r="A114" s="51"/>
+      <c r="B114" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C114" s="51">
+      <c r="C114" s="61">
         <f t="shared" si="1"/>
         <v>43458</v>
       </c>
@@ -49195,10 +49219,10 @@
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="F114" s="71" t="s">
+      <c r="F114" s="81" t="s">
         <v>304</v>
       </c>
       <c r="G114" s="1"/>
@@ -49211,22 +49235,22 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="53" t="s">
+      <c r="A115" s="51"/>
+      <c r="B115" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="C115" s="54">
+      <c r="C115" s="64">
         <f t="shared" si="1"/>
         <v>43460</v>
       </c>
-      <c r="D115" s="55" t="str">
+      <c r="D115" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E115" s="57" t="s">
+      <c r="E115" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="F115" s="72" t="s">
+      <c r="F115" s="82" t="s">
         <v>305</v>
       </c>
       <c r="G115" s="1"/>
@@ -49239,22 +49263,22 @@
       <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="41"/>
-      <c r="B116" s="47" t="s">
+      <c r="A116" s="51"/>
+      <c r="B116" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="C116" s="48">
+      <c r="C116" s="58">
         <f t="shared" si="1"/>
         <v>43462</v>
       </c>
-      <c r="D116" s="49" t="str">
+      <c r="D116" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E116" s="73" t="s">
+      <c r="E116" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="F116" s="74" t="s">
+      <c r="F116" s="84" t="s">
         <v>309</v>
       </c>
       <c r="G116" s="1"/>
@@ -49267,11 +49291,11 @@
       <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
-      <c r="B117" s="41" t="s">
+      <c r="A117" s="51"/>
+      <c r="B117" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C117" s="51">
+      <c r="C117" s="61">
         <f t="shared" si="1"/>
         <v>43464</v>
       </c>
@@ -49279,10 +49303,10 @@
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E117" s="69" t="s">
+      <c r="E117" s="79" t="s">
         <v>311</v>
       </c>
-      <c r="F117" s="70" t="s">
+      <c r="F117" s="80" t="s">
         <v>311</v>
       </c>
       <c r="G117" s="1"/>
@@ -49295,22 +49319,22 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41"/>
-      <c r="B118" s="53" t="s">
+      <c r="A118" s="51"/>
+      <c r="B118" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="54">
+      <c r="C118" s="64">
         <f t="shared" si="1"/>
         <v>43466</v>
       </c>
-      <c r="D118" s="55" t="str">
+      <c r="D118" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E118" s="81" t="s">
+      <c r="E118" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="F118" s="82" t="s">
+      <c r="F118" s="92" t="s">
         <v>314</v>
       </c>
       <c r="G118" s="1"/>
@@ -49323,22 +49347,22 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="41"/>
-      <c r="B119" s="47" t="s">
+      <c r="A119" s="51"/>
+      <c r="B119" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C119" s="48">
+      <c r="C119" s="58">
         <f t="shared" si="1"/>
         <v>43468</v>
       </c>
-      <c r="D119" s="49" t="str">
+      <c r="D119" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E119" s="77" t="s">
+      <c r="E119" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="F119" s="78" t="s">
+      <c r="F119" s="88" t="s">
         <v>314</v>
       </c>
       <c r="G119" s="1"/>
@@ -49351,11 +49375,11 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41"/>
-      <c r="B120" s="41" t="s">
+      <c r="A120" s="51"/>
+      <c r="B120" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="C120" s="51">
+      <c r="C120" s="61">
         <f t="shared" si="1"/>
         <v>43470</v>
       </c>
@@ -49366,7 +49390,7 @@
       <c r="E120" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F120" s="52" t="s">
+      <c r="F120" s="62" t="s">
         <v>318</v>
       </c>
       <c r="G120" s="1"/>
@@ -49379,22 +49403,22 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="41"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="51"/>
+      <c r="B121" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="C121" s="54">
+      <c r="C121" s="64">
         <f t="shared" si="1"/>
         <v>43472</v>
       </c>
-      <c r="D121" s="55" t="str">
+      <c r="D121" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E121" s="55" t="s">
+      <c r="E121" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="F121" s="56" t="s">
+      <c r="F121" s="66" t="s">
         <v>318</v>
       </c>
       <c r="G121" s="1"/>
@@ -49407,22 +49431,22 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
-      <c r="B122" s="47" t="s">
+      <c r="A122" s="51"/>
+      <c r="B122" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="48">
+      <c r="C122" s="58">
         <f t="shared" si="1"/>
         <v>43474</v>
       </c>
-      <c r="D122" s="49" t="str">
+      <c r="D122" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E122" s="49" t="s">
+      <c r="E122" s="59" t="s">
         <v>321</v>
       </c>
-      <c r="F122" s="50" t="s">
+      <c r="F122" s="60" t="s">
         <v>322</v>
       </c>
       <c r="G122" s="1"/>
@@ -49435,11 +49459,11 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="41" t="s">
+      <c r="A123" s="51"/>
+      <c r="B123" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C123" s="51">
+      <c r="C123" s="61">
         <f t="shared" si="1"/>
         <v>43476</v>
       </c>
@@ -49450,7 +49474,7 @@
       <c r="E123" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F123" s="52" t="s">
+      <c r="F123" s="62" t="s">
         <v>322</v>
       </c>
       <c r="G123" s="1"/>
@@ -49463,22 +49487,22 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41"/>
-      <c r="B124" s="53" t="s">
+      <c r="A124" s="51"/>
+      <c r="B124" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="C124" s="54">
+      <c r="C124" s="64">
         <f t="shared" si="1"/>
         <v>43478</v>
       </c>
-      <c r="D124" s="55" t="str">
+      <c r="D124" s="65" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E124" s="57" t="s">
+      <c r="E124" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="F124" s="72" t="s">
+      <c r="F124" s="82" t="s">
         <v>325</v>
       </c>
       <c r="G124" s="1"/>
@@ -49491,22 +49515,22 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="41"/>
-      <c r="B125" s="47" t="s">
+      <c r="A125" s="51"/>
+      <c r="B125" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="C125" s="48">
+      <c r="C125" s="58">
         <f t="shared" si="1"/>
         <v>43480</v>
       </c>
-      <c r="D125" s="49" t="str">
+      <c r="D125" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E125" s="73" t="s">
+      <c r="E125" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="F125" s="74" t="s">
+      <c r="F125" s="84" t="s">
         <v>325</v>
       </c>
       <c r="G125" s="1"/>
@@ -49519,11 +49543,11 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
-      <c r="B126" s="41" t="s">
+      <c r="A126" s="51"/>
+      <c r="B126" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C126" s="51">
+      <c r="C126" s="61">
         <f t="shared" si="1"/>
         <v>43482</v>
       </c>
@@ -49531,10 +49555,10 @@
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E126" s="79" t="s">
+      <c r="E126" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="F126" s="80" t="s">
+      <c r="F126" s="90" t="s">
         <v>329</v>
       </c>
       <c r="G126" s="1"/>
@@ -49547,22 +49571,22 @@
       <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="53" t="s">
+      <c r="A127" s="51"/>
+      <c r="B127" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="C127" s="54">
+      <c r="C127" s="64">
         <f t="shared" si="1"/>
         <v>43484</v>
       </c>
-      <c r="D127" s="55" t="str">
+      <c r="D127" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T7</v>
       </c>
-      <c r="E127" s="81" t="s">
+      <c r="E127" s="91" t="s">
         <v>329</v>
       </c>
-      <c r="F127" s="82" t="s">
+      <c r="F127" s="92" t="s">
         <v>329</v>
       </c>
       <c r="G127" s="1"/>
@@ -49575,22 +49599,22 @@
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="47" t="s">
+      <c r="A128" s="51"/>
+      <c r="B128" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="C128" s="48">
+      <c r="C128" s="58">
         <f t="shared" si="1"/>
         <v>43486</v>
       </c>
-      <c r="D128" s="49" t="str">
+      <c r="D128" s="59" t="str">
         <f t="shared" si="0"/>
         <v>T2</v>
       </c>
-      <c r="E128" s="67" t="s">
+      <c r="E128" s="77" t="s">
         <v>332</v>
       </c>
-      <c r="F128" s="68" t="s">
+      <c r="F128" s="78" t="s">
         <v>333</v>
       </c>
       <c r="G128" s="1"/>
@@ -49603,11 +49627,11 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41"/>
-      <c r="B129" s="41" t="s">
+      <c r="A129" s="51"/>
+      <c r="B129" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C129" s="51">
+      <c r="C129" s="61">
         <f t="shared" si="1"/>
         <v>43488</v>
       </c>
@@ -49615,10 +49639,10 @@
         <f t="shared" si="0"/>
         <v>T4</v>
       </c>
-      <c r="E129" s="69" t="s">
+      <c r="E129" s="79" t="s">
         <v>333</v>
       </c>
-      <c r="F129" s="70" t="s">
+      <c r="F129" s="80" t="s">
         <v>333</v>
       </c>
       <c r="G129" s="1"/>
@@ -49631,22 +49655,22 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="53" t="s">
+      <c r="A130" s="51"/>
+      <c r="B130" s="63" t="s">
         <v>335</v>
       </c>
-      <c r="C130" s="54">
+      <c r="C130" s="64">
         <f t="shared" si="1"/>
         <v>43490</v>
       </c>
-      <c r="D130" s="55" t="str">
+      <c r="D130" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T6</v>
       </c>
-      <c r="E130" s="57" t="s">
+      <c r="E130" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="F130" s="72" t="s">
+      <c r="F130" s="82" t="s">
         <v>336</v>
       </c>
       <c r="G130" s="1"/>
@@ -49659,22 +49683,22 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="47" t="s">
+      <c r="A131" s="51"/>
+      <c r="B131" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="C131" s="48">
+      <c r="C131" s="58">
         <f t="shared" si="1"/>
         <v>43492</v>
       </c>
-      <c r="D131" s="49" t="str">
+      <c r="D131" s="59" t="str">
         <f t="shared" si="0"/>
         <v>CN</v>
       </c>
-      <c r="E131" s="73" t="s">
+      <c r="E131" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="F131" s="74" t="s">
+      <c r="F131" s="84" t="s">
         <v>338</v>
       </c>
       <c r="G131" s="1"/>
@@ -49687,11 +49711,11 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="41" t="s">
+      <c r="A132" s="51"/>
+      <c r="B132" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C132" s="61">
         <f t="shared" si="1"/>
         <v>43494</v>
       </c>
@@ -49699,10 +49723,10 @@
         <f t="shared" si="0"/>
         <v>T3</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="F132" s="95" t="s">
+      <c r="F132" s="105" t="s">
         <v>340</v>
       </c>
       <c r="G132" s="1"/>
@@ -49715,22 +49739,22 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="53" t="s">
+      <c r="A133" s="63"/>
+      <c r="B133" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C133" s="54">
+      <c r="C133" s="64">
         <f t="shared" si="1"/>
         <v>43496</v>
       </c>
-      <c r="D133" s="55" t="str">
+      <c r="D133" s="65" t="str">
         <f t="shared" si="0"/>
         <v>T5</v>
       </c>
-      <c r="E133" s="83" t="s">
+      <c r="E133" s="93" t="s">
         <v>340</v>
       </c>
-      <c r="F133" s="84" t="s">
+      <c r="F133" s="94" t="s">
         <v>340</v>
       </c>
       <c r="G133" s="1"/>
@@ -49759,7 +49783,7 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="31" t="s">
+      <c r="A135" s="41" t="s">
         <v>342</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -49802,7 +49826,7 @@
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="87" t="s">
+      <c r="B137" s="97" t="s">
         <v>343</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -49822,7 +49846,7 @@
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="43" t="s">
         <v>82</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -49902,7 +49926,7 @@
     </row>
     <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="44" t="s">
         <v>349</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -49942,7 +49966,7 @@
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
-      <c r="B144" s="69" t="s">
+      <c r="B144" s="79" t="s">
         <v>353</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -49982,7 +50006,7 @@
     </row>
     <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
-      <c r="B146" s="79" t="s">
+      <c r="B146" s="89" t="s">
         <v>357</v>
       </c>
       <c r="C146" s="1" t="s">
